--- a/062619_Tibetan_Blood_Gas_4200.xlsx
+++ b/062619_Tibetan_Blood_Gas_4200.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanju\Desktop\Tatum‘s Group\FORTRAN_Rewrite\Tibetan Data Analysis\Calculating_CaCO2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanju\Desktop\Tatum‘s Group\FORTRAN_Rewrite\Tibetan Data Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5816325-BE8C-48F3-827D-2D3E799F9841}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE08A5D3-8EE6-482F-AD11-CA026338A347}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4200" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="216">
   <si>
     <t>ID</t>
   </si>
@@ -652,6 +652,30 @@
   </si>
   <si>
     <t>CaCO2</t>
+  </si>
+  <si>
+    <t>Qtmax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VE     </t>
+  </si>
+  <si>
+    <t>BF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VO2   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VCO2  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RER   </t>
+  </si>
+  <si>
+    <t>VDe_VT</t>
   </si>
 </sst>
 </file>
@@ -661,12 +685,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -739,27 +770,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1035,19 +1075,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y207"/>
+  <dimension ref="A1:AH207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U13" sqref="U13"/>
+      <selection pane="bottomLeft" activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" customWidth="1"/>
     <col min="6" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" customWidth="1"/>
@@ -1060,10 +1100,17 @@
     <col min="20" max="21" width="6" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="7" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.7109375" customWidth="1"/>
+    <col min="31" max="31" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:34">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1139,8 +1186,33 @@
       <c r="Y1" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="Z1" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH1" s="2"/>
+    </row>
+    <row r="2" spans="1:34">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -1218,8 +1290,32 @@
       <c r="Y2">
         <v>-5.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:25">
+      <c r="Z2" s="16">
+        <v>19.835000000000001</v>
+      </c>
+      <c r="AA2" s="16">
+        <v>158</v>
+      </c>
+      <c r="AB2" s="16">
+        <v>66.33</v>
+      </c>
+      <c r="AC2" s="16">
+        <v>29</v>
+      </c>
+      <c r="AD2" s="16">
+        <v>1194.33</v>
+      </c>
+      <c r="AE2" s="16">
+        <v>1572</v>
+      </c>
+      <c r="AF2" s="16">
+        <v>1.3</v>
+      </c>
+      <c r="AG2" s="16">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
       <c r="A3" s="3" t="s">
         <v>25</v>
       </c>
@@ -1297,8 +1393,32 @@
       <c r="Y3">
         <v>-6.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:25">
+      <c r="Z3" s="17">
+        <v>11.819000000000001</v>
+      </c>
+      <c r="AA3" s="16">
+        <v>137.80000000000001</v>
+      </c>
+      <c r="AB3" s="16">
+        <v>66.33</v>
+      </c>
+      <c r="AC3" s="16">
+        <v>38.83</v>
+      </c>
+      <c r="AD3" s="16">
+        <v>1403.33</v>
+      </c>
+      <c r="AE3" s="16">
+        <v>1664.33</v>
+      </c>
+      <c r="AF3" s="16">
+        <v>1.17</v>
+      </c>
+      <c r="AG3" s="16">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -1376,8 +1496,32 @@
       <c r="Y4">
         <v>-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:25">
+      <c r="Z4" s="17">
+        <v>15.394285714285701</v>
+      </c>
+      <c r="AA4" s="16">
+        <v>186.67</v>
+      </c>
+      <c r="AB4" s="16">
+        <v>78</v>
+      </c>
+      <c r="AC4" s="16">
+        <v>34</v>
+      </c>
+      <c r="AD4" s="16">
+        <v>1283.67</v>
+      </c>
+      <c r="AE4" s="16">
+        <v>1656.33</v>
+      </c>
+      <c r="AF4" s="16">
+        <v>1.29</v>
+      </c>
+      <c r="AG4" s="16">
+        <v>21.33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
       <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
@@ -1455,8 +1599,32 @@
       <c r="Y5">
         <v>-7.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:25">
+      <c r="Z5" s="17">
+        <v>13.90875</v>
+      </c>
+      <c r="AA5" s="16">
+        <v>160.5</v>
+      </c>
+      <c r="AB5" s="16">
+        <v>83.5</v>
+      </c>
+      <c r="AC5" s="16">
+        <v>34</v>
+      </c>
+      <c r="AD5" s="16">
+        <v>1603</v>
+      </c>
+      <c r="AE5" s="16">
+        <v>2116.5</v>
+      </c>
+      <c r="AF5" s="16">
+        <v>1.325</v>
+      </c>
+      <c r="AG5" s="16">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34">
       <c r="A6" s="3" t="s">
         <v>31</v>
       </c>
@@ -1534,8 +1702,32 @@
       <c r="Y6">
         <v>-7.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:25">
+      <c r="Z6" s="17">
+        <v>11.2525</v>
+      </c>
+      <c r="AA6" s="16">
+        <v>183</v>
+      </c>
+      <c r="AB6" s="16">
+        <v>58.5</v>
+      </c>
+      <c r="AC6" s="16">
+        <v>38</v>
+      </c>
+      <c r="AD6" s="16">
+        <v>1154.5</v>
+      </c>
+      <c r="AE6" s="16">
+        <v>1364</v>
+      </c>
+      <c r="AF6" s="16">
+        <v>1.19</v>
+      </c>
+      <c r="AG6" s="16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -1613,8 +1805,32 @@
       <c r="Y7">
         <v>-4</v>
       </c>
-    </row>
-    <row r="8" spans="1:25">
+      <c r="Z7" s="17">
+        <v>14.65</v>
+      </c>
+      <c r="AA7" s="16">
+        <v>170.5</v>
+      </c>
+      <c r="AB7" s="16">
+        <v>68.5</v>
+      </c>
+      <c r="AC7" s="16">
+        <v>51</v>
+      </c>
+      <c r="AD7" s="16">
+        <v>1202.5</v>
+      </c>
+      <c r="AE7" s="16">
+        <v>1593.5</v>
+      </c>
+      <c r="AF7" s="16">
+        <v>1.33</v>
+      </c>
+      <c r="AG7" s="16">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34">
       <c r="A8" s="3" t="s">
         <v>35</v>
       </c>
@@ -1692,8 +1908,32 @@
       <c r="Y8">
         <v>-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:25">
+      <c r="Z8" s="17">
+        <v>10.3575</v>
+      </c>
+      <c r="AA8" s="16">
+        <v>169</v>
+      </c>
+      <c r="AB8" s="16">
+        <v>58.5</v>
+      </c>
+      <c r="AC8" s="16">
+        <v>26</v>
+      </c>
+      <c r="AD8" s="16">
+        <v>1304</v>
+      </c>
+      <c r="AE8" s="16">
+        <v>1593</v>
+      </c>
+      <c r="AF8" s="16">
+        <v>1.22</v>
+      </c>
+      <c r="AG8" s="16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34">
       <c r="A9" s="3" t="s">
         <v>37</v>
       </c>
@@ -1771,8 +2011,32 @@
       <c r="Y9">
         <v>-5.6</v>
       </c>
-    </row>
-    <row r="10" spans="1:25">
+      <c r="Z9" s="17">
+        <v>12.03</v>
+      </c>
+      <c r="AA9" s="16">
+        <v>79.5</v>
+      </c>
+      <c r="AB9" s="16">
+        <v>45.5</v>
+      </c>
+      <c r="AC9" s="16">
+        <v>41.5</v>
+      </c>
+      <c r="AD9" s="16">
+        <v>881</v>
+      </c>
+      <c r="AE9" s="16">
+        <v>1138.5</v>
+      </c>
+      <c r="AF9" s="16">
+        <v>1.29</v>
+      </c>
+      <c r="AG9" s="16">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34">
       <c r="A10" s="3" t="s">
         <v>39</v>
       </c>
@@ -1850,8 +2114,32 @@
       <c r="Y10">
         <v>-4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25">
+      <c r="Z10" s="17">
+        <v>8.5449999999999999</v>
+      </c>
+      <c r="AA10" s="16">
+        <v>152</v>
+      </c>
+      <c r="AB10" s="16">
+        <v>37</v>
+      </c>
+      <c r="AC10" s="16">
+        <v>41.5</v>
+      </c>
+      <c r="AD10" s="16">
+        <v>601</v>
+      </c>
+      <c r="AE10" s="16">
+        <v>870</v>
+      </c>
+      <c r="AF10" s="16">
+        <v>1.45</v>
+      </c>
+      <c r="AG10" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34">
       <c r="A11" s="3" t="s">
         <v>41</v>
       </c>
@@ -1929,8 +2217,32 @@
       <c r="Y11">
         <v>-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:25">
+      <c r="Z11" s="17">
+        <v>7.9169230769230703</v>
+      </c>
+      <c r="AA11" s="16">
+        <v>142</v>
+      </c>
+      <c r="AB11" s="16">
+        <v>37.25</v>
+      </c>
+      <c r="AC11" s="16">
+        <v>38</v>
+      </c>
+      <c r="AD11" s="16">
+        <v>989.25</v>
+      </c>
+      <c r="AE11" s="16">
+        <v>1089.5</v>
+      </c>
+      <c r="AF11" s="16">
+        <v>1.095</v>
+      </c>
+      <c r="AG11" s="16">
+        <v>10.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34">
       <c r="A12" s="3" t="s">
         <v>43</v>
       </c>
@@ -2008,8 +2320,32 @@
       <c r="Y12">
         <v>-4</v>
       </c>
-    </row>
-    <row r="13" spans="1:25">
+      <c r="Z12" s="17">
+        <v>13.5971428571429</v>
+      </c>
+      <c r="AA12" s="16">
+        <v>148.33000000000001</v>
+      </c>
+      <c r="AB12" s="16">
+        <v>29</v>
+      </c>
+      <c r="AC12" s="16">
+        <v>32</v>
+      </c>
+      <c r="AD12" s="16">
+        <v>703.33</v>
+      </c>
+      <c r="AE12" s="16">
+        <v>754</v>
+      </c>
+      <c r="AF12" s="16">
+        <v>1.07</v>
+      </c>
+      <c r="AG12" s="16">
+        <v>13.33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34">
       <c r="A13" s="3" t="s">
         <v>45</v>
       </c>
@@ -2087,8 +2423,32 @@
       <c r="Y13">
         <v>-1.3</v>
       </c>
-    </row>
-    <row r="14" spans="1:25">
+      <c r="Z13" s="17">
+        <v>11.398571428571399</v>
+      </c>
+      <c r="AA13" s="16">
+        <v>148.33000000000001</v>
+      </c>
+      <c r="AB13" s="16">
+        <v>45.67</v>
+      </c>
+      <c r="AC13" s="16">
+        <v>33</v>
+      </c>
+      <c r="AD13" s="16">
+        <v>948.67</v>
+      </c>
+      <c r="AE13" s="16">
+        <v>1134.33</v>
+      </c>
+      <c r="AF13" s="16">
+        <v>1.19</v>
+      </c>
+      <c r="AG13" s="16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34">
       <c r="A14" s="3" t="s">
         <v>47</v>
       </c>
@@ -2166,8 +2526,32 @@
       <c r="Y14">
         <v>-5</v>
       </c>
-    </row>
-    <row r="15" spans="1:25">
+      <c r="Z14" s="17">
+        <v>10.1269230769231</v>
+      </c>
+      <c r="AA14" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB14" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC14" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD14" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE14" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF14" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG14" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34">
       <c r="A15" s="3" t="s">
         <v>49</v>
       </c>
@@ -2245,8 +2629,32 @@
       <c r="Y15">
         <v>-7</v>
       </c>
-    </row>
-    <row r="16" spans="1:25">
+      <c r="Z15" s="17">
+        <v>12.3</v>
+      </c>
+      <c r="AA15" s="16">
+        <v>77</v>
+      </c>
+      <c r="AB15" s="16">
+        <v>52</v>
+      </c>
+      <c r="AC15" s="16">
+        <v>36</v>
+      </c>
+      <c r="AD15" s="16">
+        <v>1081</v>
+      </c>
+      <c r="AE15" s="16">
+        <v>1160</v>
+      </c>
+      <c r="AF15" s="16">
+        <v>1.08</v>
+      </c>
+      <c r="AG15" s="16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34">
       <c r="A16" s="3" t="s">
         <v>51</v>
       </c>
@@ -2324,8 +2732,32 @@
       <c r="Y16">
         <v>-5.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:25">
+      <c r="Z16" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="16">
+        <v>27</v>
+      </c>
+      <c r="AC16" s="16">
+        <v>34.67</v>
+      </c>
+      <c r="AD16" s="16">
+        <v>604.33000000000004</v>
+      </c>
+      <c r="AE16" s="16">
+        <v>690.67</v>
+      </c>
+      <c r="AF16" s="16">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AG16" s="16">
+        <v>11.67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33">
       <c r="A17" s="3" t="s">
         <v>53</v>
       </c>
@@ -2403,8 +2835,32 @@
       <c r="Y17">
         <v>-8.1</v>
       </c>
-    </row>
-    <row r="18" spans="1:25">
+      <c r="Z17" s="17">
+        <v>8.5850000000000009</v>
+      </c>
+      <c r="AA17" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="16">
+        <v>24</v>
+      </c>
+      <c r="AC17" s="16">
+        <v>43.5</v>
+      </c>
+      <c r="AD17" s="16">
+        <v>537</v>
+      </c>
+      <c r="AE17" s="16">
+        <v>684</v>
+      </c>
+      <c r="AF17" s="16">
+        <v>1.27</v>
+      </c>
+      <c r="AG17" s="16">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33">
       <c r="A18" s="3" t="s">
         <v>55</v>
       </c>
@@ -2482,8 +2938,32 @@
       <c r="Y18">
         <v>-11</v>
       </c>
-    </row>
-    <row r="19" spans="1:25">
+      <c r="Z18" s="17">
+        <v>16.2433333333333</v>
+      </c>
+      <c r="AA18" s="16">
+        <v>178.5</v>
+      </c>
+      <c r="AB18" s="16">
+        <v>120</v>
+      </c>
+      <c r="AC18" s="16">
+        <v>56</v>
+      </c>
+      <c r="AD18" s="16">
+        <v>1736</v>
+      </c>
+      <c r="AE18" s="16">
+        <v>2526.5</v>
+      </c>
+      <c r="AF18" s="16">
+        <v>1.46</v>
+      </c>
+      <c r="AG18" s="16">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33">
       <c r="A19" s="3" t="s">
         <v>57</v>
       </c>
@@ -2561,8 +3041,32 @@
       <c r="Y19">
         <v>-5.6</v>
       </c>
-    </row>
-    <row r="20" spans="1:25">
+      <c r="Z19" s="17">
+        <v>12.6657142857143</v>
+      </c>
+      <c r="AA19" s="16">
+        <v>200</v>
+      </c>
+      <c r="AB19" s="16">
+        <v>90</v>
+      </c>
+      <c r="AC19" s="16">
+        <v>42.5</v>
+      </c>
+      <c r="AD19" s="16">
+        <v>1638</v>
+      </c>
+      <c r="AE19" s="16">
+        <v>2245.5</v>
+      </c>
+      <c r="AF19" s="16">
+        <v>1.37</v>
+      </c>
+      <c r="AG19" s="16">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33">
       <c r="A20" s="3" t="s">
         <v>59</v>
       </c>
@@ -2640,8 +3144,32 @@
       <c r="Y20">
         <v>-5</v>
       </c>
-    </row>
-    <row r="21" spans="1:25">
+      <c r="Z20" s="17">
+        <v>12.297499999999999</v>
+      </c>
+      <c r="AA20" s="16">
+        <v>165</v>
+      </c>
+      <c r="AB20" s="16">
+        <v>62.5</v>
+      </c>
+      <c r="AC20" s="16">
+        <v>39</v>
+      </c>
+      <c r="AD20" s="16">
+        <v>1099</v>
+      </c>
+      <c r="AE20" s="16">
+        <v>1518</v>
+      </c>
+      <c r="AF20" s="16">
+        <v>1.39</v>
+      </c>
+      <c r="AG20" s="16">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33">
       <c r="A21" s="3" t="s">
         <v>61</v>
       </c>
@@ -2719,8 +3247,32 @@
       <c r="Y21">
         <v>-8</v>
       </c>
-    </row>
-    <row r="22" spans="1:25">
+      <c r="Z21" s="17">
+        <v>14.8325</v>
+      </c>
+      <c r="AA21" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB21" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC21" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD21" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE21" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF21" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG21" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33">
       <c r="A22" s="3" t="s">
         <v>63</v>
       </c>
@@ -2798,8 +3350,32 @@
       <c r="Y22">
         <v>-10</v>
       </c>
-    </row>
-    <row r="23" spans="1:25">
+      <c r="Z22" s="17">
+        <v>12.047499999999999</v>
+      </c>
+      <c r="AA22" s="16">
+        <v>162.5</v>
+      </c>
+      <c r="AB22" s="16">
+        <v>66.5</v>
+      </c>
+      <c r="AC22" s="16">
+        <v>36.5</v>
+      </c>
+      <c r="AD22" s="16">
+        <v>1447</v>
+      </c>
+      <c r="AE22" s="16">
+        <v>1671.5</v>
+      </c>
+      <c r="AF22" s="16">
+        <v>1.155</v>
+      </c>
+      <c r="AG22" s="16">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33">
       <c r="A23" s="3" t="s">
         <v>65</v>
       </c>
@@ -2877,8 +3453,32 @@
       <c r="Y23">
         <v>-6</v>
       </c>
-    </row>
-    <row r="24" spans="1:25">
+      <c r="Z23" s="17">
+        <v>15.4175</v>
+      </c>
+      <c r="AA23" s="16">
+        <v>168</v>
+      </c>
+      <c r="AB23" s="16">
+        <v>99.5</v>
+      </c>
+      <c r="AC23" s="16">
+        <v>49.5</v>
+      </c>
+      <c r="AD23" s="16">
+        <v>1655.5</v>
+      </c>
+      <c r="AE23" s="16">
+        <v>2269.5</v>
+      </c>
+      <c r="AF23" s="16">
+        <v>1.37</v>
+      </c>
+      <c r="AG23" s="16">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33">
       <c r="A24" s="3" t="s">
         <v>67</v>
       </c>
@@ -2956,8 +3556,32 @@
       <c r="Y24">
         <v>-7</v>
       </c>
-    </row>
-    <row r="25" spans="1:25">
+      <c r="Z24" s="17">
+        <v>15.775</v>
+      </c>
+      <c r="AA24" s="16">
+        <v>186.5</v>
+      </c>
+      <c r="AB24" s="16">
+        <v>92.5</v>
+      </c>
+      <c r="AC24" s="16">
+        <v>43</v>
+      </c>
+      <c r="AD24" s="16">
+        <v>1478.5</v>
+      </c>
+      <c r="AE24" s="16">
+        <v>2032</v>
+      </c>
+      <c r="AF24" s="16">
+        <v>1.38</v>
+      </c>
+      <c r="AG24" s="16">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33">
       <c r="A25" s="3" t="s">
         <v>69</v>
       </c>
@@ -3035,8 +3659,32 @@
       <c r="Y25">
         <v>-7.8</v>
       </c>
-    </row>
-    <row r="26" spans="1:25">
+      <c r="Z25" s="17">
+        <v>14.9725</v>
+      </c>
+      <c r="AA25" s="16">
+        <v>182.5</v>
+      </c>
+      <c r="AB25" s="16">
+        <v>83.5</v>
+      </c>
+      <c r="AC25" s="16">
+        <v>44</v>
+      </c>
+      <c r="AD25" s="16">
+        <v>1615.5</v>
+      </c>
+      <c r="AE25" s="16">
+        <v>2226.5</v>
+      </c>
+      <c r="AF25" s="16">
+        <v>1.38</v>
+      </c>
+      <c r="AG25" s="16">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33">
       <c r="A26" s="3" t="s">
         <v>71</v>
       </c>
@@ -3114,8 +3762,32 @@
       <c r="Y26">
         <v>-6</v>
       </c>
-    </row>
-    <row r="27" spans="1:25">
+      <c r="Z26" s="17">
+        <v>16.684999999999999</v>
+      </c>
+      <c r="AA26" s="16">
+        <v>182</v>
+      </c>
+      <c r="AB26" s="16">
+        <v>98.5</v>
+      </c>
+      <c r="AC26" s="16">
+        <v>40</v>
+      </c>
+      <c r="AD26" s="16">
+        <v>2072.5</v>
+      </c>
+      <c r="AE26" s="16">
+        <v>2600</v>
+      </c>
+      <c r="AF26" s="16">
+        <v>1.26</v>
+      </c>
+      <c r="AG26" s="16">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33">
       <c r="A27" s="3" t="s">
         <v>73</v>
       </c>
@@ -3193,8 +3865,32 @@
       <c r="Y27">
         <v>-5.0999999999999996</v>
       </c>
-    </row>
-    <row r="28" spans="1:25">
+      <c r="Z27" s="17">
+        <v>10.293333333333299</v>
+      </c>
+      <c r="AA27" s="16">
+        <v>161.5</v>
+      </c>
+      <c r="AB27" s="16">
+        <v>75</v>
+      </c>
+      <c r="AC27" s="16">
+        <v>43</v>
+      </c>
+      <c r="AD27" s="16">
+        <v>1403</v>
+      </c>
+      <c r="AE27" s="16">
+        <v>1618.5</v>
+      </c>
+      <c r="AF27" s="16">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AG27" s="16">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33">
       <c r="A28" s="3" t="s">
         <v>75</v>
       </c>
@@ -3272,8 +3968,32 @@
       <c r="Y28">
         <v>-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:25">
+      <c r="Z28" s="17">
+        <v>10.647500000000001</v>
+      </c>
+      <c r="AA28" s="16">
+        <v>178</v>
+      </c>
+      <c r="AB28" s="16">
+        <v>53.5</v>
+      </c>
+      <c r="AC28" s="16">
+        <v>44</v>
+      </c>
+      <c r="AD28" s="16">
+        <v>1073</v>
+      </c>
+      <c r="AE28" s="16">
+        <v>1430</v>
+      </c>
+      <c r="AF28" s="16">
+        <v>1.34</v>
+      </c>
+      <c r="AG28" s="16">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33">
       <c r="A29" s="3" t="s">
         <v>77</v>
       </c>
@@ -3351,8 +4071,32 @@
       <c r="Y29">
         <v>-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:25">
+      <c r="Z29" s="17">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="AA29" s="16">
+        <v>170.5</v>
+      </c>
+      <c r="AB29" s="16">
+        <v>49.5</v>
+      </c>
+      <c r="AC29" s="16">
+        <v>36.5</v>
+      </c>
+      <c r="AD29" s="16">
+        <v>967.5</v>
+      </c>
+      <c r="AE29" s="16">
+        <v>1196.5</v>
+      </c>
+      <c r="AF29" s="16">
+        <v>1.23</v>
+      </c>
+      <c r="AG29" s="16">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33">
       <c r="A30" s="3" t="s">
         <v>79</v>
       </c>
@@ -3430,8 +4174,32 @@
       <c r="Y30">
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:25">
+      <c r="Z30" s="17">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="AA30" s="16">
+        <v>128</v>
+      </c>
+      <c r="AB30" s="16">
+        <v>48</v>
+      </c>
+      <c r="AC30" s="16">
+        <v>41.5</v>
+      </c>
+      <c r="AD30" s="16">
+        <v>970.5</v>
+      </c>
+      <c r="AE30" s="16">
+        <v>1108.5</v>
+      </c>
+      <c r="AF30" s="16">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AG30" s="16">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33">
       <c r="A31" s="3" t="s">
         <v>81</v>
       </c>
@@ -3509,8 +4277,32 @@
       <c r="Y31">
         <v>-5.2</v>
       </c>
-    </row>
-    <row r="32" spans="1:25">
+      <c r="Z31" s="17">
+        <v>14.7525</v>
+      </c>
+      <c r="AA31" s="16">
+        <v>71.5</v>
+      </c>
+      <c r="AB31" s="16">
+        <v>54.5</v>
+      </c>
+      <c r="AC31" s="16">
+        <v>39</v>
+      </c>
+      <c r="AD31" s="16">
+        <v>1217.5</v>
+      </c>
+      <c r="AE31" s="16">
+        <v>1450.5</v>
+      </c>
+      <c r="AF31" s="16">
+        <v>1.19</v>
+      </c>
+      <c r="AG31" s="16">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33">
       <c r="A32" s="3" t="s">
         <v>83</v>
       </c>
@@ -3588,8 +4380,32 @@
       <c r="Y32">
         <v>-8</v>
       </c>
-    </row>
-    <row r="33" spans="1:25">
+      <c r="Z32" s="17">
+        <v>15.957000000000001</v>
+      </c>
+      <c r="AA32" s="16">
+        <v>156.25</v>
+      </c>
+      <c r="AB32" s="16">
+        <v>53.5</v>
+      </c>
+      <c r="AC32" s="16">
+        <v>38</v>
+      </c>
+      <c r="AD32" s="16">
+        <v>1110.25</v>
+      </c>
+      <c r="AE32" s="16">
+        <v>1316</v>
+      </c>
+      <c r="AF32" s="16">
+        <v>1.18</v>
+      </c>
+      <c r="AG32" s="16">
+        <v>22.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33">
       <c r="A33" s="3" t="s">
         <v>85</v>
       </c>
@@ -3667,8 +4483,32 @@
       <c r="Y33">
         <v>-8.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:25">
+      <c r="Z33" s="17">
+        <v>12.0825</v>
+      </c>
+      <c r="AA33" s="16">
+        <v>79.5</v>
+      </c>
+      <c r="AB33" s="16">
+        <v>72</v>
+      </c>
+      <c r="AC33" s="16">
+        <v>54.5</v>
+      </c>
+      <c r="AD33" s="16">
+        <v>1107.5</v>
+      </c>
+      <c r="AE33" s="16">
+        <v>1430</v>
+      </c>
+      <c r="AF33" s="16">
+        <v>1.29</v>
+      </c>
+      <c r="AG33" s="16">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33">
       <c r="A34" s="3" t="s">
         <v>87</v>
       </c>
@@ -3746,8 +4586,32 @@
       <c r="Y34">
         <v>-4.2</v>
       </c>
-    </row>
-    <row r="35" spans="1:25">
+      <c r="Z34" s="17">
+        <v>10.49</v>
+      </c>
+      <c r="AA34" s="16">
+        <v>169.5</v>
+      </c>
+      <c r="AB34" s="16">
+        <v>50.75</v>
+      </c>
+      <c r="AC34" s="16">
+        <v>34.75</v>
+      </c>
+      <c r="AD34" s="16">
+        <v>1020.75</v>
+      </c>
+      <c r="AE34" s="16">
+        <v>1261.25</v>
+      </c>
+      <c r="AF34" s="16">
+        <v>1.24</v>
+      </c>
+      <c r="AG34" s="16">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33">
       <c r="A35" s="3" t="s">
         <v>88</v>
       </c>
@@ -3825,8 +4689,32 @@
       <c r="Y35">
         <v>-11.7</v>
       </c>
-    </row>
-    <row r="36" spans="1:25">
+      <c r="Z35" s="17">
+        <v>14.9625</v>
+      </c>
+      <c r="AA35" s="16">
+        <v>178.5</v>
+      </c>
+      <c r="AB35" s="16">
+        <v>68</v>
+      </c>
+      <c r="AC35" s="16">
+        <v>55.5</v>
+      </c>
+      <c r="AD35" s="16">
+        <v>977.5</v>
+      </c>
+      <c r="AE35" s="16">
+        <v>1272</v>
+      </c>
+      <c r="AF35" s="16">
+        <v>1.3</v>
+      </c>
+      <c r="AG35" s="16">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33">
       <c r="A36" s="3" t="s">
         <v>90</v>
       </c>
@@ -3904,8 +4792,32 @@
       <c r="Y36">
         <v>-9.8000000000000007</v>
       </c>
-    </row>
-    <row r="37" spans="1:25">
+      <c r="Z36" s="17">
+        <v>11.3184615384615</v>
+      </c>
+      <c r="AA36" s="16">
+        <v>175</v>
+      </c>
+      <c r="AB36" s="16">
+        <v>46</v>
+      </c>
+      <c r="AC36" s="16">
+        <v>42.2</v>
+      </c>
+      <c r="AD36" s="16">
+        <v>1047.5999999999999</v>
+      </c>
+      <c r="AE36" s="16">
+        <v>1224</v>
+      </c>
+      <c r="AF36" s="16">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="AG36" s="16">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33">
       <c r="A37" s="3" t="s">
         <v>92</v>
       </c>
@@ -3983,8 +4895,32 @@
       <c r="Y37">
         <v>-6.6</v>
       </c>
-    </row>
-    <row r="38" spans="1:25">
+      <c r="Z37" s="17">
+        <v>13.818571428571399</v>
+      </c>
+      <c r="AA37" s="16">
+        <v>158.33000000000001</v>
+      </c>
+      <c r="AB37" s="16">
+        <v>49.33</v>
+      </c>
+      <c r="AC37" s="16">
+        <v>35.33</v>
+      </c>
+      <c r="AD37" s="16">
+        <v>1062.67</v>
+      </c>
+      <c r="AE37" s="16">
+        <v>1227.67</v>
+      </c>
+      <c r="AF37" s="16">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AG37" s="16">
+        <v>21.67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33">
       <c r="A38" s="3" t="s">
         <v>94</v>
       </c>
@@ -4062,8 +4998,32 @@
       <c r="Y38" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="39" spans="1:25">
+      <c r="Z38" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC38" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF38" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33">
       <c r="A39" s="3" t="s">
         <v>97</v>
       </c>
@@ -4132,7 +5092,7 @@
       <c r="V39" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W39" t="s">
+      <c r="W39" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X39" t="s">
@@ -4141,8 +5101,32 @@
       <c r="Y39" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="40" spans="1:25">
+      <c r="Z39" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC39" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF39" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33">
       <c r="A40" s="3" t="s">
         <v>98</v>
       </c>
@@ -4211,7 +5195,7 @@
       <c r="V40" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W40" t="s">
+      <c r="W40" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X40" t="s">
@@ -4220,8 +5204,32 @@
       <c r="Y40" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="41" spans="1:25">
+      <c r="Z40" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC40" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF40" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33">
       <c r="A41" s="3" t="s">
         <v>100</v>
       </c>
@@ -4290,7 +5298,7 @@
       <c r="V41" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W41" t="s">
+      <c r="W41" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X41" t="s">
@@ -4299,8 +5307,32 @@
       <c r="Y41" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="42" spans="1:25">
+      <c r="Z41" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC41" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF41" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33">
       <c r="A42" s="3" t="s">
         <v>101</v>
       </c>
@@ -4369,7 +5401,7 @@
       <c r="V42" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W42" t="s">
+      <c r="W42" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X42" t="s">
@@ -4378,8 +5410,32 @@
       <c r="Y42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="43" spans="1:25">
+      <c r="Z42" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC42" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF42" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33">
       <c r="A43" s="3" t="s">
         <v>102</v>
       </c>
@@ -4448,7 +5504,7 @@
       <c r="V43" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W43" t="s">
+      <c r="W43" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X43" t="s">
@@ -4457,8 +5513,32 @@
       <c r="Y43" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="44" spans="1:25">
+      <c r="Z43" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC43" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF43" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33">
       <c r="A44" s="3" t="s">
         <v>103</v>
       </c>
@@ -4527,7 +5607,7 @@
       <c r="V44" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W44" t="s">
+      <c r="W44" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X44" t="s">
@@ -4536,8 +5616,32 @@
       <c r="Y44" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="45" spans="1:25">
+      <c r="Z44" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC44" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF44" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33">
       <c r="A45" s="3" t="s">
         <v>104</v>
       </c>
@@ -4606,7 +5710,7 @@
       <c r="V45" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W45" t="s">
+      <c r="W45" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X45" t="s">
@@ -4615,8 +5719,32 @@
       <c r="Y45" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="46" spans="1:25">
+      <c r="Z45" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC45" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF45" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33">
       <c r="A46" s="3" t="s">
         <v>105</v>
       </c>
@@ -4685,7 +5813,7 @@
       <c r="V46" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W46" t="s">
+      <c r="W46" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X46" t="s">
@@ -4694,8 +5822,32 @@
       <c r="Y46" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="47" spans="1:25">
+      <c r="Z46" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC46" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF46" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33">
       <c r="A47" s="3" t="s">
         <v>106</v>
       </c>
@@ -4764,7 +5916,7 @@
       <c r="V47" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W47" t="s">
+      <c r="W47" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X47" t="s">
@@ -4773,8 +5925,32 @@
       <c r="Y47" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="48" spans="1:25">
+      <c r="Z47" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC47" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF47" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33">
       <c r="A48" s="3" t="s">
         <v>107</v>
       </c>
@@ -4843,7 +6019,7 @@
       <c r="V48" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W48" t="s">
+      <c r="W48" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X48" t="s">
@@ -4852,8 +6028,32 @@
       <c r="Y48" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="49" spans="1:25">
+      <c r="Z48" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC48" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF48" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33">
       <c r="A49" s="3" t="s">
         <v>108</v>
       </c>
@@ -4922,7 +6122,7 @@
       <c r="V49" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W49" t="s">
+      <c r="W49" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X49" t="s">
@@ -4931,8 +6131,32 @@
       <c r="Y49" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="50" spans="1:25">
+      <c r="Z49" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC49" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF49" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33">
       <c r="A50" s="3" t="s">
         <v>109</v>
       </c>
@@ -5001,7 +6225,7 @@
       <c r="V50" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W50" t="s">
+      <c r="W50" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X50" t="s">
@@ -5010,8 +6234,32 @@
       <c r="Y50" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="51" spans="1:25">
+      <c r="Z50" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC50" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF50" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33">
       <c r="A51" s="3" t="s">
         <v>110</v>
       </c>
@@ -5080,7 +6328,7 @@
       <c r="V51" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W51" t="s">
+      <c r="W51" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X51" t="s">
@@ -5089,8 +6337,32 @@
       <c r="Y51" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="52" spans="1:25">
+      <c r="Z51" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC51" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF51" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33">
       <c r="A52" s="3" t="s">
         <v>111</v>
       </c>
@@ -5159,7 +6431,7 @@
       <c r="V52" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W52" t="s">
+      <c r="W52" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X52" t="s">
@@ -5168,8 +6440,32 @@
       <c r="Y52" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="53" spans="1:25">
+      <c r="Z52" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC52" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF52" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33">
       <c r="A53" s="3" t="s">
         <v>112</v>
       </c>
@@ -5238,7 +6534,7 @@
       <c r="V53" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W53" t="s">
+      <c r="W53" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X53" t="s">
@@ -5247,8 +6543,32 @@
       <c r="Y53" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="54" spans="1:25">
+      <c r="Z53" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC53" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF53" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33">
       <c r="A54" s="3" t="s">
         <v>113</v>
       </c>
@@ -5317,7 +6637,7 @@
       <c r="V54" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W54" t="s">
+      <c r="W54" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X54" t="s">
@@ -5326,8 +6646,32 @@
       <c r="Y54" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="55" spans="1:25">
+      <c r="Z54" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC54" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF54" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33">
       <c r="A55" s="3" t="s">
         <v>114</v>
       </c>
@@ -5396,7 +6740,7 @@
       <c r="V55" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W55" t="s">
+      <c r="W55" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X55" t="s">
@@ -5405,8 +6749,32 @@
       <c r="Y55" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="56" spans="1:25">
+      <c r="Z55" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC55" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF55" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33">
       <c r="A56" s="3" t="s">
         <v>115</v>
       </c>
@@ -5475,7 +6843,7 @@
       <c r="V56" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W56" t="s">
+      <c r="W56" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X56" t="s">
@@ -5484,8 +6852,32 @@
       <c r="Y56" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="57" spans="1:25">
+      <c r="Z56" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC56" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF56" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33">
       <c r="A57" s="3" t="s">
         <v>116</v>
       </c>
@@ -5554,7 +6946,7 @@
       <c r="V57" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W57" t="s">
+      <c r="W57" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X57" t="s">
@@ -5563,8 +6955,32 @@
       <c r="Y57" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="58" spans="1:25">
+      <c r="Z57" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC57" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF57" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33">
       <c r="A58" s="3" t="s">
         <v>117</v>
       </c>
@@ -5633,7 +7049,7 @@
       <c r="V58" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W58" t="s">
+      <c r="W58" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X58" t="s">
@@ -5642,8 +7058,32 @@
       <c r="Y58" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="59" spans="1:25">
+      <c r="Z58" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC58" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF58" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33">
       <c r="A59" s="3" t="s">
         <v>118</v>
       </c>
@@ -5712,7 +7152,7 @@
       <c r="V59" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W59" t="s">
+      <c r="W59" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X59" t="s">
@@ -5721,8 +7161,32 @@
       <c r="Y59" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="60" spans="1:25">
+      <c r="Z59" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC59" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF59" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33">
       <c r="A60" s="3" t="s">
         <v>119</v>
       </c>
@@ -5791,7 +7255,7 @@
       <c r="V60" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W60" t="s">
+      <c r="W60" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X60" t="s">
@@ -5800,8 +7264,32 @@
       <c r="Y60" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="61" spans="1:25">
+      <c r="Z60" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC60" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF60" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33">
       <c r="A61" s="3" t="s">
         <v>120</v>
       </c>
@@ -5870,7 +7358,7 @@
       <c r="V61" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W61" t="s">
+      <c r="W61" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X61" t="s">
@@ -5879,8 +7367,32 @@
       <c r="Y61" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="62" spans="1:25">
+      <c r="Z61" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC61" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF61" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33">
       <c r="A62" s="3" t="s">
         <v>121</v>
       </c>
@@ -5949,7 +7461,7 @@
       <c r="V62" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W62" t="s">
+      <c r="W62" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X62" t="s">
@@ -5958,8 +7470,32 @@
       <c r="Y62" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="63" spans="1:25">
+      <c r="Z62" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC62" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF62" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33">
       <c r="A63" s="3" t="s">
         <v>122</v>
       </c>
@@ -6028,7 +7564,7 @@
       <c r="V63" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W63" t="s">
+      <c r="W63" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X63" t="s">
@@ -6037,8 +7573,32 @@
       <c r="Y63" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="64" spans="1:25">
+      <c r="Z63" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC63" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF63" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG63" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33">
       <c r="A64" s="3" t="s">
         <v>123</v>
       </c>
@@ -6107,7 +7667,7 @@
       <c r="V64" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W64" t="s">
+      <c r="W64" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X64" t="s">
@@ -6116,8 +7676,32 @@
       <c r="Y64" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="65" spans="1:25">
+      <c r="Z64" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA64" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC64" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE64" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF64" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG64" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:33">
       <c r="A65" s="3" t="s">
         <v>124</v>
       </c>
@@ -6186,7 +7770,7 @@
       <c r="V65" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W65" t="s">
+      <c r="W65" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X65" t="s">
@@ -6195,8 +7779,32 @@
       <c r="Y65" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="66" spans="1:25">
+      <c r="Z65" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA65" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC65" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE65" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF65" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG65" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:33">
       <c r="A66" s="3" t="s">
         <v>125</v>
       </c>
@@ -6265,7 +7873,7 @@
       <c r="V66" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W66" t="s">
+      <c r="W66" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X66" t="s">
@@ -6274,8 +7882,32 @@
       <c r="Y66" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="67" spans="1:25">
+      <c r="Z66" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC66" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD66" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE66" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF66" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG66" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:33">
       <c r="A67" s="3" t="s">
         <v>126</v>
       </c>
@@ -6344,7 +7976,7 @@
       <c r="V67" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W67" t="s">
+      <c r="W67" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X67" t="s">
@@ -6353,8 +7985,32 @@
       <c r="Y67" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="68" spans="1:25">
+      <c r="Z67" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB67" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC67" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD67" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE67" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF67" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:33">
       <c r="A68" s="3" t="s">
         <v>127</v>
       </c>
@@ -6423,7 +8079,7 @@
       <c r="V68" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W68" t="s">
+      <c r="W68" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X68" t="s">
@@ -6432,8 +8088,32 @@
       <c r="Y68" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="69" spans="1:25">
+      <c r="Z68" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC68" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD68" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE68" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF68" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG68" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:33">
       <c r="A69" s="3" t="s">
         <v>128</v>
       </c>
@@ -6502,7 +8182,7 @@
       <c r="V69" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W69" t="s">
+      <c r="W69" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X69" t="s">
@@ -6511,8 +8191,32 @@
       <c r="Y69" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="70" spans="1:25">
+      <c r="Z69" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC69" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE69" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF69" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG69" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:33">
       <c r="A70" s="3" t="s">
         <v>129</v>
       </c>
@@ -6581,7 +8285,7 @@
       <c r="V70" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W70" t="s">
+      <c r="W70" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X70" t="s">
@@ -6590,8 +8294,32 @@
       <c r="Y70" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="71" spans="1:25">
+      <c r="Z70" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA70" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB70" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC70" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE70" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF70" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG70" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71" spans="1:33">
       <c r="A71" s="3" t="s">
         <v>130</v>
       </c>
@@ -6660,7 +8388,7 @@
       <c r="V71" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W71" t="s">
+      <c r="W71" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X71" t="s">
@@ -6669,8 +8397,32 @@
       <c r="Y71" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="72" spans="1:25">
+      <c r="Z71" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC71" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE71" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF71" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG71" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72" spans="1:33">
       <c r="A72" s="3" t="s">
         <v>131</v>
       </c>
@@ -6739,7 +8491,7 @@
       <c r="V72" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W72" t="s">
+      <c r="W72" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X72" t="s">
@@ -6748,8 +8500,32 @@
       <c r="Y72" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="73" spans="1:25">
+      <c r="Z72" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC72" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD72" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE72" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF72" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG72" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:33">
       <c r="A73" s="3" t="s">
         <v>133</v>
       </c>
@@ -6818,7 +8594,7 @@
       <c r="V73" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W73" t="s">
+      <c r="W73" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X73" t="s">
@@ -6827,8 +8603,32 @@
       <c r="Y73" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="74" spans="1:25">
+      <c r="Z73" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC73" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD73" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE73" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF73" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG73" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74" spans="1:33">
       <c r="A74" s="3" t="s">
         <v>134</v>
       </c>
@@ -6897,7 +8697,7 @@
       <c r="V74" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W74" t="s">
+      <c r="W74" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X74" t="s">
@@ -6906,8 +8706,32 @@
       <c r="Y74" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="75" spans="1:25">
+      <c r="Z74" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC74" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD74" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE74" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF74" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG74" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="75" spans="1:33">
       <c r="A75" s="3" t="s">
         <v>136</v>
       </c>
@@ -6976,7 +8800,7 @@
       <c r="V75" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W75" t="s">
+      <c r="W75" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X75" t="s">
@@ -6985,8 +8809,32 @@
       <c r="Y75" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="76" spans="1:25">
+      <c r="Z75" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA75" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB75" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC75" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD75" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE75" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF75" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG75" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="76" spans="1:33">
       <c r="A76" s="3" t="s">
         <v>137</v>
       </c>
@@ -7055,7 +8903,7 @@
       <c r="V76" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W76" t="s">
+      <c r="W76" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X76" t="s">
@@ -7064,8 +8912,32 @@
       <c r="Y76" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="77" spans="1:25">
+      <c r="Z76" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC76" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD76" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE76" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF76" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG76" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="77" spans="1:33">
       <c r="A77" s="3" t="s">
         <v>138</v>
       </c>
@@ -7134,7 +9006,7 @@
       <c r="V77" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W77" t="s">
+      <c r="W77" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X77" t="s">
@@ -7143,8 +9015,32 @@
       <c r="Y77" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="78" spans="1:25">
+      <c r="Z77" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA77" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC77" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD77" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE77" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF77" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG77" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="78" spans="1:33">
       <c r="A78" s="3" t="s">
         <v>139</v>
       </c>
@@ -7213,7 +9109,7 @@
       <c r="V78" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W78" t="s">
+      <c r="W78" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X78" t="s">
@@ -7222,8 +9118,32 @@
       <c r="Y78" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="79" spans="1:25">
+      <c r="Z78" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA78" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC78" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD78" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE78" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF78" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG78" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="79" spans="1:33">
       <c r="A79" s="3" t="s">
         <v>140</v>
       </c>
@@ -7292,7 +9212,7 @@
       <c r="V79" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W79" t="s">
+      <c r="W79" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X79" t="s">
@@ -7301,8 +9221,32 @@
       <c r="Y79" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="80" spans="1:25">
+      <c r="Z79" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA79" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC79" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD79" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE79" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF79" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG79" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="80" spans="1:33">
       <c r="A80" s="3" t="s">
         <v>141</v>
       </c>
@@ -7371,7 +9315,7 @@
       <c r="V80" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W80" t="s">
+      <c r="W80" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X80" t="s">
@@ -7380,8 +9324,32 @@
       <c r="Y80" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="81" spans="1:25">
+      <c r="Z80" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA80" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB80" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC80" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD80" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE80" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF80" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG80" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="81" spans="1:33">
       <c r="A81" s="3" t="s">
         <v>142</v>
       </c>
@@ -7450,7 +9418,7 @@
       <c r="V81" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W81" t="s">
+      <c r="W81" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X81" t="s">
@@ -7459,8 +9427,32 @@
       <c r="Y81" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="82" spans="1:25">
+      <c r="Z81" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA81" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB81" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC81" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD81" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE81" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF81" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG81" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="82" spans="1:33">
       <c r="A82" s="3" t="s">
         <v>143</v>
       </c>
@@ -7529,7 +9521,7 @@
       <c r="V82" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W82" t="s">
+      <c r="W82" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X82" t="s">
@@ -7538,8 +9530,32 @@
       <c r="Y82" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="83" spans="1:25">
+      <c r="Z82" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA82" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB82" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC82" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD82" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE82" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF82" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG82" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="83" spans="1:33">
       <c r="A83" s="3" t="s">
         <v>144</v>
       </c>
@@ -7608,7 +9624,7 @@
       <c r="V83" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W83" t="s">
+      <c r="W83" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X83" t="s">
@@ -7617,8 +9633,32 @@
       <c r="Y83" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="84" spans="1:25">
+      <c r="Z83" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA83" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB83" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC83" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD83" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE83" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF83" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG83" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="84" spans="1:33">
       <c r="A84" s="3" t="s">
         <v>145</v>
       </c>
@@ -7687,7 +9727,7 @@
       <c r="V84" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W84" t="s">
+      <c r="W84" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X84" t="s">
@@ -7696,8 +9736,32 @@
       <c r="Y84" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="85" spans="1:25">
+      <c r="Z84" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA84" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB84" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC84" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD84" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE84" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF84" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG84" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="85" spans="1:33">
       <c r="A85" s="3" t="s">
         <v>146</v>
       </c>
@@ -7766,7 +9830,7 @@
       <c r="V85" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W85" t="s">
+      <c r="W85" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X85" t="s">
@@ -7775,8 +9839,32 @@
       <c r="Y85" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="86" spans="1:25">
+      <c r="Z85" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA85" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB85" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC85" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD85" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE85" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF85" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG85" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="86" spans="1:33">
       <c r="A86" s="3" t="s">
         <v>147</v>
       </c>
@@ -7845,7 +9933,7 @@
       <c r="V86" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W86" t="s">
+      <c r="W86" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X86" t="s">
@@ -7854,8 +9942,32 @@
       <c r="Y86" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="87" spans="1:25">
+      <c r="Z86" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA86" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB86" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC86" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD86" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE86" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF86" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG86" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="87" spans="1:33">
       <c r="A87" s="3" t="s">
         <v>148</v>
       </c>
@@ -7924,7 +10036,7 @@
       <c r="V87" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W87" t="s">
+      <c r="W87" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X87" t="s">
@@ -7933,8 +10045,32 @@
       <c r="Y87" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="88" spans="1:25">
+      <c r="Z87" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA87" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB87" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC87" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD87" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE87" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF87" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG87" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="88" spans="1:33">
       <c r="A88" s="3" t="s">
         <v>149</v>
       </c>
@@ -8003,7 +10139,7 @@
       <c r="V88" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W88" t="s">
+      <c r="W88" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X88" t="s">
@@ -8012,8 +10148,32 @@
       <c r="Y88" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="89" spans="1:25">
+      <c r="Z88" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA88" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB88" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC88" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD88" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE88" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF88" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG88" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="89" spans="1:33">
       <c r="A89" s="3" t="s">
         <v>150</v>
       </c>
@@ -8082,7 +10242,7 @@
       <c r="V89" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W89" t="s">
+      <c r="W89" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X89" t="s">
@@ -8091,8 +10251,32 @@
       <c r="Y89" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="90" spans="1:25">
+      <c r="Z89" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA89" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB89" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC89" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD89" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE89" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF89" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG89" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="90" spans="1:33">
       <c r="A90" s="3" t="s">
         <v>152</v>
       </c>
@@ -8161,7 +10345,7 @@
       <c r="V90" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W90" t="s">
+      <c r="W90" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X90" t="s">
@@ -8170,8 +10354,32 @@
       <c r="Y90" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="91" spans="1:25">
+      <c r="Z90" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA90" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB90" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC90" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD90" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE90" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF90" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG90" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="91" spans="1:33">
       <c r="A91" s="3" t="s">
         <v>153</v>
       </c>
@@ -8240,7 +10448,7 @@
       <c r="V91" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W91" t="s">
+      <c r="W91" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X91" t="s">
@@ -8249,8 +10457,32 @@
       <c r="Y91" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="92" spans="1:25">
+      <c r="Z91" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA91" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB91" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC91" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD91" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE91" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF91" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG91" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="92" spans="1:33">
       <c r="A92" s="3" t="s">
         <v>154</v>
       </c>
@@ -8319,7 +10551,7 @@
       <c r="V92" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W92" t="s">
+      <c r="W92" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X92" t="s">
@@ -8328,8 +10560,32 @@
       <c r="Y92" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="93" spans="1:25">
+      <c r="Z92" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA92" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB92" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC92" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD92" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE92" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF92" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG92" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="93" spans="1:33">
       <c r="A93" s="3" t="s">
         <v>155</v>
       </c>
@@ -8398,7 +10654,7 @@
       <c r="V93" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W93" t="s">
+      <c r="W93" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X93" t="s">
@@ -8407,8 +10663,32 @@
       <c r="Y93" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="94" spans="1:25">
+      <c r="Z93" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA93" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB93" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC93" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD93" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE93" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF93" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG93" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" spans="1:33">
       <c r="A94" s="3" t="s">
         <v>156</v>
       </c>
@@ -8477,7 +10757,7 @@
       <c r="V94" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W94" t="s">
+      <c r="W94" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X94" t="s">
@@ -8486,8 +10766,32 @@
       <c r="Y94" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="95" spans="1:25">
+      <c r="Z94" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA94" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB94" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC94" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD94" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE94" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF94" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG94" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="95" spans="1:33">
       <c r="A95" s="3" t="s">
         <v>157</v>
       </c>
@@ -8556,7 +10860,7 @@
       <c r="V95" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W95" t="s">
+      <c r="W95" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X95" t="s">
@@ -8565,8 +10869,32 @@
       <c r="Y95" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="96" spans="1:25">
+      <c r="Z95" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA95" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB95" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC95" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD95" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE95" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF95" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG95" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="96" spans="1:33">
       <c r="A96" s="3" t="s">
         <v>158</v>
       </c>
@@ -8635,7 +10963,7 @@
       <c r="V96" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W96" t="s">
+      <c r="W96" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X96" t="s">
@@ -8644,8 +10972,32 @@
       <c r="Y96" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="97" spans="1:25">
+      <c r="Z96" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA96" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB96" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC96" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD96" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE96" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF96" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG96" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33">
       <c r="A97" s="3" t="s">
         <v>159</v>
       </c>
@@ -8714,7 +11066,7 @@
       <c r="V97" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W97" t="s">
+      <c r="W97" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X97" t="s">
@@ -8723,8 +11075,32 @@
       <c r="Y97" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:25">
+      <c r="Z97" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA97" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB97" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC97" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD97" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE97" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF97" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33">
       <c r="A98" s="3" t="s">
         <v>160</v>
       </c>
@@ -8793,7 +11169,7 @@
       <c r="V98" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W98" t="s">
+      <c r="W98" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X98" t="s">
@@ -8802,8 +11178,32 @@
       <c r="Y98" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="99" spans="1:25">
+      <c r="Z98" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA98" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB98" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC98" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD98" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE98" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF98" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG98" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33">
       <c r="A99" s="3" t="s">
         <v>161</v>
       </c>
@@ -8872,7 +11272,7 @@
       <c r="V99" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W99" t="s">
+      <c r="W99" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X99" t="s">
@@ -8881,8 +11281,32 @@
       <c r="Y99" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="100" spans="1:25">
+      <c r="Z99" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA99" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB99" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC99" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD99" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE99" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF99" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG99" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33">
       <c r="A100" s="3" t="s">
         <v>162</v>
       </c>
@@ -8951,7 +11375,7 @@
       <c r="V100" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W100" t="s">
+      <c r="W100" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X100" t="s">
@@ -8960,8 +11384,32 @@
       <c r="Y100" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="101" spans="1:25">
+      <c r="Z100" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA100" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB100" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC100" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD100" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE100" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF100" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG100" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33">
       <c r="A101" s="3" t="s">
         <v>163</v>
       </c>
@@ -9030,7 +11478,7 @@
       <c r="V101" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W101" t="s">
+      <c r="W101" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X101" t="s">
@@ -9039,8 +11487,32 @@
       <c r="Y101" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="102" spans="1:25">
+      <c r="Z101" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA101" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB101" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC101" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD101" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE101" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF101" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG101" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33">
       <c r="A102" s="3" t="s">
         <v>164</v>
       </c>
@@ -9109,7 +11581,7 @@
       <c r="V102" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W102" t="s">
+      <c r="W102" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X102" t="s">
@@ -9118,8 +11590,32 @@
       <c r="Y102" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="103" spans="1:25">
+      <c r="Z102" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA102" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB102" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC102" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD102" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE102" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF102" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG102" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33">
       <c r="A103" s="3" t="s">
         <v>165</v>
       </c>
@@ -9188,7 +11684,7 @@
       <c r="V103" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W103" t="s">
+      <c r="W103" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X103" t="s">
@@ -9197,8 +11693,32 @@
       <c r="Y103" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="104" spans="1:25">
+      <c r="Z103" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA103" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB103" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC103" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD103" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE103" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF103" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG103" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33">
       <c r="A104" s="3" t="s">
         <v>166</v>
       </c>
@@ -9267,7 +11787,7 @@
       <c r="V104" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W104" t="s">
+      <c r="W104" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X104" t="s">
@@ -9276,8 +11796,32 @@
       <c r="Y104" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="105" spans="1:25">
+      <c r="Z104" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA104" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB104" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC104" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD104" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE104" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF104" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG104" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33">
       <c r="A105" s="3" t="s">
         <v>167</v>
       </c>
@@ -9346,7 +11890,7 @@
       <c r="V105" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W105" t="s">
+      <c r="W105" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X105" t="s">
@@ -9355,8 +11899,32 @@
       <c r="Y105" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="106" spans="1:25">
+      <c r="Z105" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA105" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB105" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC105" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD105" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE105" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF105" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG105" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33">
       <c r="A106" s="3" t="s">
         <v>168</v>
       </c>
@@ -9425,7 +11993,7 @@
       <c r="V106" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W106" t="s">
+      <c r="W106" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X106" t="s">
@@ -9434,8 +12002,32 @@
       <c r="Y106" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="107" spans="1:25">
+      <c r="Z106" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA106" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB106" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC106" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD106" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE106" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF106" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG106" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33">
       <c r="A107" s="3" t="s">
         <v>169</v>
       </c>
@@ -9504,7 +12096,7 @@
       <c r="V107" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W107" t="s">
+      <c r="W107" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X107" t="s">
@@ -9513,8 +12105,32 @@
       <c r="Y107" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="108" spans="1:25">
+      <c r="Z107" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA107" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB107" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC107" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD107" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE107" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF107" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG107" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33">
       <c r="A108" s="3" t="s">
         <v>170</v>
       </c>
@@ -9583,7 +12199,7 @@
       <c r="V108" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W108" t="s">
+      <c r="W108" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X108" t="s">
@@ -9592,8 +12208,32 @@
       <c r="Y108" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="109" spans="1:25">
+      <c r="Z108" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA108" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB108" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC108" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD108" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE108" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF108" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG108" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="109" spans="1:33">
       <c r="A109" s="3" t="s">
         <v>171</v>
       </c>
@@ -9662,7 +12302,7 @@
       <c r="V109" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W109" t="s">
+      <c r="W109" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X109" t="s">
@@ -9671,8 +12311,32 @@
       <c r="Y109" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="110" spans="1:25">
+      <c r="Z109" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA109" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB109" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC109" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD109" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE109" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF109" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG109" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="110" spans="1:33">
       <c r="A110" s="3" t="s">
         <v>173</v>
       </c>
@@ -9741,7 +12405,7 @@
       <c r="V110" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W110" t="s">
+      <c r="W110" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X110" t="s">
@@ -9750,8 +12414,32 @@
       <c r="Y110" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="111" spans="1:25">
+      <c r="Z110" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA110" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB110" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC110" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD110" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE110" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF110" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG110" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="111" spans="1:33">
       <c r="A111" s="3" t="s">
         <v>174</v>
       </c>
@@ -9820,7 +12508,7 @@
       <c r="V111" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W111" t="s">
+      <c r="W111" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X111" t="s">
@@ -9829,8 +12517,32 @@
       <c r="Y111" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="112" spans="1:25">
+      <c r="Z111" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA111" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB111" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC111" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD111" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE111" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF111" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG111" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="112" spans="1:33">
       <c r="A112" s="3" t="s">
         <v>175</v>
       </c>
@@ -9899,7 +12611,7 @@
       <c r="V112" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W112" t="s">
+      <c r="W112" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X112" t="s">
@@ -9908,8 +12620,32 @@
       <c r="Y112" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="113" spans="1:25">
+      <c r="Z112" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA112" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB112" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC112" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD112" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE112" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF112" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG112" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="113" spans="1:33">
       <c r="A113" s="3" t="s">
         <v>176</v>
       </c>
@@ -9978,7 +12714,7 @@
       <c r="V113" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W113" t="s">
+      <c r="W113" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X113" t="s">
@@ -9987,8 +12723,32 @@
       <c r="Y113" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="114" spans="1:25">
+      <c r="Z113" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA113" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB113" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC113" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD113" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE113" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF113" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG113" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="114" spans="1:33">
       <c r="A114" s="3" t="s">
         <v>177</v>
       </c>
@@ -10057,7 +12817,7 @@
       <c r="V114" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W114" t="s">
+      <c r="W114" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X114" t="s">
@@ -10066,8 +12826,32 @@
       <c r="Y114" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="115" spans="1:25">
+      <c r="Z114" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA114" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB114" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC114" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD114" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE114" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF114" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG114" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="115" spans="1:33">
       <c r="A115" s="3" t="s">
         <v>178</v>
       </c>
@@ -10136,7 +12920,7 @@
       <c r="V115" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W115" t="s">
+      <c r="W115" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X115" t="s">
@@ -10145,8 +12929,32 @@
       <c r="Y115" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="116" spans="1:25">
+      <c r="Z115" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA115" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB115" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC115" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD115" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE115" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF115" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG115" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="116" spans="1:33">
       <c r="A116" s="3" t="s">
         <v>179</v>
       </c>
@@ -10215,7 +13023,7 @@
       <c r="V116" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W116" t="s">
+      <c r="W116" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X116" t="s">
@@ -10224,8 +13032,32 @@
       <c r="Y116" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="117" spans="1:25">
+      <c r="Z116" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA116" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB116" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC116" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD116" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE116" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF116" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG116" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="117" spans="1:33">
       <c r="A117" s="3" t="s">
         <v>180</v>
       </c>
@@ -10294,7 +13126,7 @@
       <c r="V117" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W117" t="s">
+      <c r="W117" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X117" t="s">
@@ -10303,8 +13135,32 @@
       <c r="Y117" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="118" spans="1:25">
+      <c r="Z117" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA117" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB117" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC117" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD117" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE117" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF117" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG117" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="118" spans="1:33">
       <c r="A118" s="3" t="s">
         <v>181</v>
       </c>
@@ -10373,7 +13229,7 @@
       <c r="V118" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W118" t="s">
+      <c r="W118" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X118" t="s">
@@ -10382,8 +13238,32 @@
       <c r="Y118" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="119" spans="1:25">
+      <c r="Z118" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA118" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB118" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC118" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD118" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE118" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF118" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG118" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="119" spans="1:33">
       <c r="A119" s="3" t="s">
         <v>182</v>
       </c>
@@ -10452,7 +13332,7 @@
       <c r="V119" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W119" t="s">
+      <c r="W119" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X119" t="s">
@@ -10461,8 +13341,32 @@
       <c r="Y119" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="120" spans="1:25">
+      <c r="Z119" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA119" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB119" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC119" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD119" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE119" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF119" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG119" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="120" spans="1:33">
       <c r="A120" s="3" t="s">
         <v>183</v>
       </c>
@@ -10531,7 +13435,7 @@
       <c r="V120" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W120" t="s">
+      <c r="W120" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X120" t="s">
@@ -10540,8 +13444,32 @@
       <c r="Y120" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="121" spans="1:25">
+      <c r="Z120" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA120" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB120" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC120" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD120" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE120" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF120" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG120" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="121" spans="1:33">
       <c r="A121" s="3" t="s">
         <v>184</v>
       </c>
@@ -10610,7 +13538,7 @@
       <c r="V121" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W121" t="s">
+      <c r="W121" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X121" t="s">
@@ -10619,8 +13547,32 @@
       <c r="Y121" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="122" spans="1:25">
+      <c r="Z121" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA121" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB121" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC121" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD121" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE121" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF121" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG121" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="122" spans="1:33">
       <c r="A122" s="3" t="s">
         <v>185</v>
       </c>
@@ -10689,7 +13641,7 @@
       <c r="V122" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W122" t="s">
+      <c r="W122" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X122" t="s">
@@ -10698,8 +13650,32 @@
       <c r="Y122" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="123" spans="1:25">
+      <c r="Z122" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA122" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB122" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC122" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD122" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE122" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF122" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG122" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="123" spans="1:33">
       <c r="A123" s="3" t="s">
         <v>186</v>
       </c>
@@ -10768,7 +13744,7 @@
       <c r="V123" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W123" t="s">
+      <c r="W123" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X123" t="s">
@@ -10777,8 +13753,32 @@
       <c r="Y123" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="124" spans="1:25">
+      <c r="Z123" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA123" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB123" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC123" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD123" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE123" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF123" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG123" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="124" spans="1:33">
       <c r="A124" s="3" t="s">
         <v>187</v>
       </c>
@@ -10847,7 +13847,7 @@
       <c r="V124" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W124" t="s">
+      <c r="W124" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X124" t="s">
@@ -10856,8 +13856,32 @@
       <c r="Y124" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="125" spans="1:25">
+      <c r="Z124" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA124" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB124" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC124" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD124" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE124" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF124" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG124" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="125" spans="1:33">
       <c r="A125" s="3" t="s">
         <v>188</v>
       </c>
@@ -10926,7 +13950,7 @@
       <c r="V125" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W125" t="s">
+      <c r="W125" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X125" t="s">
@@ -10935,8 +13959,32 @@
       <c r="Y125" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="126" spans="1:25">
+      <c r="Z125" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA125" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB125" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC125" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD125" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE125" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF125" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG125" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="126" spans="1:33">
       <c r="A126" s="3" t="s">
         <v>189</v>
       </c>
@@ -11005,7 +14053,7 @@
       <c r="V126" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W126" t="s">
+      <c r="W126" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X126" t="s">
@@ -11014,8 +14062,32 @@
       <c r="Y126" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="127" spans="1:25">
+      <c r="Z126" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA126" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB126" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC126" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD126" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE126" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF126" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG126" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="127" spans="1:33">
       <c r="A127" s="3" t="s">
         <v>190</v>
       </c>
@@ -11084,7 +14156,7 @@
       <c r="V127" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W127" t="s">
+      <c r="W127" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X127" t="s">
@@ -11093,8 +14165,32 @@
       <c r="Y127" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="128" spans="1:25">
+      <c r="Z127" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA127" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB127" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC127" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD127" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE127" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF127" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG127" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="128" spans="1:33">
       <c r="A128" s="3" t="s">
         <v>192</v>
       </c>
@@ -11163,7 +14259,7 @@
       <c r="V128" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W128" t="s">
+      <c r="W128" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X128" t="s">
@@ -11172,8 +14268,32 @@
       <c r="Y128" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="129" spans="1:25">
+      <c r="Z128" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA128" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB128" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC128" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD128" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE128" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF128" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG128" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="129" spans="1:33">
       <c r="A129" s="3" t="s">
         <v>193</v>
       </c>
@@ -11242,7 +14362,7 @@
       <c r="V129" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W129" t="s">
+      <c r="W129" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X129" t="s">
@@ -11251,8 +14371,32 @@
       <c r="Y129" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="130" spans="1:25">
+      <c r="Z129" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA129" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB129" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC129" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD129" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE129" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF129" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG129" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="130" spans="1:33">
       <c r="A130" s="3" t="s">
         <v>194</v>
       </c>
@@ -11321,7 +14465,7 @@
       <c r="V130" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W130" t="s">
+      <c r="W130" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X130" t="s">
@@ -11330,8 +14474,32 @@
       <c r="Y130" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="131" spans="1:25">
+      <c r="Z130" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA130" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB130" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC130" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD130" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE130" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF130" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG130" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="131" spans="1:33">
       <c r="A131" s="3" t="s">
         <v>195</v>
       </c>
@@ -11400,7 +14568,7 @@
       <c r="V131" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W131" t="s">
+      <c r="W131" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X131" t="s">
@@ -11409,8 +14577,32 @@
       <c r="Y131" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="132" spans="1:25">
+      <c r="Z131" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA131" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB131" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC131" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD131" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE131" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF131" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG131" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="132" spans="1:33">
       <c r="A132" s="3" t="s">
         <v>197</v>
       </c>
@@ -11479,7 +14671,7 @@
       <c r="V132" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W132" t="s">
+      <c r="W132" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X132" t="s">
@@ -11488,8 +14680,32 @@
       <c r="Y132" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="133" spans="1:25">
+      <c r="Z132" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA132" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB132" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC132" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD132" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE132" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF132" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG132" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="133" spans="1:33">
       <c r="A133" s="3" t="s">
         <v>198</v>
       </c>
@@ -11558,7 +14774,7 @@
       <c r="V133" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W133" t="s">
+      <c r="W133" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X133" t="s">
@@ -11567,8 +14783,32 @@
       <c r="Y133" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="134" spans="1:25">
+      <c r="Z133" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA133" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB133" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC133" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD133" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE133" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF133" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG133" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="134" spans="1:33">
       <c r="A134" s="3" t="s">
         <v>199</v>
       </c>
@@ -11637,7 +14877,7 @@
       <c r="V134" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W134" t="s">
+      <c r="W134" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X134" t="s">
@@ -11646,8 +14886,32 @@
       <c r="Y134" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="135" spans="1:25">
+      <c r="Z134" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA134" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB134" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC134" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD134" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE134" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF134" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG134" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="135" spans="1:33">
       <c r="A135" s="3" t="s">
         <v>201</v>
       </c>
@@ -11716,7 +14980,7 @@
       <c r="V135" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W135" t="s">
+      <c r="W135" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X135" t="s">
@@ -11725,8 +14989,32 @@
       <c r="Y135" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="136" spans="1:25">
+      <c r="Z135" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA135" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB135" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC135" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD135" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE135" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF135" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG135" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="136" spans="1:33">
       <c r="A136" s="3" t="s">
         <v>202</v>
       </c>
@@ -11795,7 +15083,7 @@
       <c r="V136" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W136" t="s">
+      <c r="W136" s="7" t="s">
         <v>96</v>
       </c>
       <c r="X136" t="s">
@@ -11804,43 +15092,67 @@
       <c r="Y136" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="137" spans="1:25">
+      <c r="Z136" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA136" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB136" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC136" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD136" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE136" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF136" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG136" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="137" spans="1:33">
       <c r="C137" s="4"/>
       <c r="D137" s="5"/>
       <c r="E137" s="1"/>
     </row>
-    <row r="138" spans="1:25">
+    <row r="138" spans="1:33">
       <c r="C138" s="4"/>
       <c r="D138" s="5"/>
       <c r="E138" s="1"/>
     </row>
-    <row r="139" spans="1:25">
+    <row r="139" spans="1:33">
       <c r="C139" s="4"/>
       <c r="D139" s="5"/>
       <c r="E139" s="1"/>
     </row>
-    <row r="140" spans="1:25">
+    <row r="140" spans="1:33">
       <c r="C140" s="4"/>
       <c r="D140" s="5"/>
       <c r="E140" s="1"/>
     </row>
-    <row r="141" spans="1:25">
+    <row r="141" spans="1:33">
       <c r="C141" s="4"/>
       <c r="D141" s="5"/>
       <c r="E141" s="1"/>
     </row>
-    <row r="142" spans="1:25">
+    <row r="142" spans="1:33">
       <c r="C142" s="4"/>
       <c r="D142" s="5"/>
       <c r="E142" s="1"/>
     </row>
-    <row r="143" spans="1:25">
+    <row r="143" spans="1:33">
       <c r="C143" s="4"/>
       <c r="D143" s="5"/>
       <c r="E143" s="1"/>
     </row>
-    <row r="144" spans="1:25">
+    <row r="144" spans="1:33">
       <c r="C144" s="4"/>
       <c r="D144" s="5"/>
       <c r="E144" s="1"/>

--- a/062619_Tibetan_Blood_Gas_4200.xlsx
+++ b/062619_Tibetan_Blood_Gas_4200.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11940" windowHeight="5412"/>
+    <workbookView windowWidth="11940" windowHeight="5412" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="4200" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2477" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2466" uniqueCount="228">
   <si>
     <t>ID</t>
   </si>
@@ -743,7 +743,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -766,7 +780,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -797,6 +818,21 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -812,8 +848,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -828,30 +865,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -864,23 +878,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -895,7 +895,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -907,13 +973,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -931,151 +1069,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1086,6 +1086,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1108,7 +1141,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1128,15 +1161,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1148,30 +1172,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1189,7 +1189,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1207,130 +1207,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7781,8 +7781,8 @@
   <sheetPr/>
   <dimension ref="A1:AN207"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="AH18" sqref="AH18"/>
     </sheetView>
@@ -24711,10 +24711,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R35"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -24779,7 +24779,7 @@
         <v>1194.33</v>
       </c>
       <c r="I2">
-        <f>H2/G2</f>
+        <f t="shared" ref="I2:I19" si="0">H2/G2</f>
         <v>52.9557075111111</v>
       </c>
     </row>
@@ -24809,7 +24809,7 @@
         <v>1403.33</v>
       </c>
       <c r="I3">
-        <f>H3/G3</f>
+        <f t="shared" si="0"/>
         <v>76.8816939259259</v>
       </c>
     </row>
@@ -24839,7 +24839,7 @@
         <v>1283.67</v>
       </c>
       <c r="I4">
-        <f>H4/G4</f>
+        <f t="shared" si="0"/>
         <v>53.1248564189189</v>
       </c>
     </row>
@@ -24869,7 +24869,7 @@
         <v>1603</v>
       </c>
       <c r="I5">
-        <f>H5/G5</f>
+        <f t="shared" si="0"/>
         <v>84.726565</v>
       </c>
     </row>
@@ -24899,7 +24899,7 @@
         <v>1154.5</v>
       </c>
       <c r="I6">
-        <f>H6/G6</f>
+        <f t="shared" si="0"/>
         <v>62.0995054545455</v>
       </c>
     </row>
@@ -24929,11 +24929,11 @@
         <v>1202.5</v>
       </c>
       <c r="I7">
-        <f>H7/G7</f>
+        <f t="shared" si="0"/>
         <v>52.0875087890625</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
         <v>56</v>
       </c>
@@ -24959,35 +24959,8 @@
         <v>1304</v>
       </c>
       <c r="I8">
-        <f>H8/G8</f>
+        <f t="shared" si="0"/>
         <v>70.6116</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M8" s="2">
-        <v>14.8</v>
-      </c>
-      <c r="N8" s="4">
-        <v>0.160744810744811</v>
-      </c>
-      <c r="O8" t="s">
-        <v>71</v>
-      </c>
-      <c r="P8">
-        <v>21.295294753921</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="R8" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -25016,7 +24989,7 @@
         <v>881</v>
       </c>
       <c r="I9">
-        <f>H9/G9</f>
+        <f t="shared" si="0"/>
         <v>44.3178959183674</v>
       </c>
     </row>
@@ -25046,7 +25019,7 @@
         <v>601</v>
       </c>
       <c r="I10">
-        <f>H10/G10</f>
+        <f t="shared" si="0"/>
         <v>27.3028397321429</v>
       </c>
     </row>
@@ -25076,7 +25049,7 @@
         <v>989.25</v>
       </c>
       <c r="I11">
-        <f>H11/G11</f>
+        <f t="shared" si="0"/>
         <v>49.417121559633</v>
       </c>
     </row>
@@ -25106,7 +25079,7 @@
         <v>703.33</v>
       </c>
       <c r="I12">
-        <f>H12/G12</f>
+        <f t="shared" si="0"/>
         <v>36.2968517857143</v>
       </c>
     </row>
@@ -25136,7 +25109,7 @@
         <v>948.67</v>
       </c>
       <c r="I13">
-        <f>H13/G13</f>
+        <f t="shared" si="0"/>
         <v>38.1897170151515</v>
       </c>
     </row>
@@ -25166,7 +25139,7 @@
         <v>1081</v>
       </c>
       <c r="I14">
-        <f>H14/G14</f>
+        <f t="shared" si="0"/>
         <v>61.1082941176471</v>
       </c>
     </row>
@@ -25196,7 +25169,7 @@
         <v>604.33</v>
       </c>
       <c r="I15">
-        <f>H15/G15</f>
+        <f t="shared" si="0"/>
         <v>34.5831057021277</v>
       </c>
     </row>
@@ -25226,7 +25199,7 @@
         <v>537</v>
       </c>
       <c r="I16">
-        <f>H16/G16</f>
+        <f t="shared" si="0"/>
         <v>27.928475</v>
       </c>
     </row>
@@ -25256,7 +25229,7 @@
         <v>1736</v>
       </c>
       <c r="I17">
-        <f>H17/G17</f>
+        <f t="shared" si="0"/>
         <v>81.276048</v>
       </c>
     </row>
@@ -25286,7 +25259,7 @@
         <v>1638</v>
       </c>
       <c r="I18">
-        <f>H18/G18</f>
+        <f t="shared" si="0"/>
         <v>76.1702117647059</v>
       </c>
     </row>
@@ -25316,11 +25289,11 @@
         <v>1099</v>
       </c>
       <c r="I19">
-        <f>H19/G19</f>
+        <f t="shared" si="0"/>
         <v>52.7834</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:9">
       <c r="A20" s="2" t="s">
         <v>81</v>
       </c>
@@ -25346,35 +25319,8 @@
         <v>1447</v>
       </c>
       <c r="I20">
-        <f t="shared" ref="I20:I35" si="0">H20/G20</f>
+        <f t="shared" ref="I20:I35" si="1">H20/G20</f>
         <v>61.5540234375</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="M20" s="2">
-        <v>17.1</v>
-      </c>
-      <c r="N20" s="4">
-        <v>0.235410628019323</v>
-      </c>
-      <c r="O20">
-        <v>25.1594202898551</v>
-      </c>
-      <c r="P20">
-        <v>24.7409372871024</v>
-      </c>
-      <c r="Q20" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="R20" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -25403,7 +25349,7 @@
         <v>1655.5</v>
       </c>
       <c r="I21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>74.4681282258065</v>
       </c>
     </row>
@@ -25433,7 +25379,7 @@
         <v>1478.5</v>
       </c>
       <c r="I22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>75.4473074074074</v>
       </c>
     </row>
@@ -25463,7 +25409,7 @@
         <v>1615.5</v>
       </c>
       <c r="I23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>74.5457415254237</v>
       </c>
     </row>
@@ -25493,7 +25439,7 @@
         <v>2072.5</v>
       </c>
       <c r="I24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>93.2257298387097</v>
       </c>
     </row>
@@ -25523,7 +25469,7 @@
         <v>1403</v>
       </c>
       <c r="I25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>71.562675862069</v>
       </c>
     </row>
@@ -25553,7 +25499,7 @@
         <v>1073</v>
       </c>
       <c r="I26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54.14358</v>
       </c>
     </row>
@@ -25583,7 +25529,7 @@
         <v>967.5</v>
       </c>
       <c r="I27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>53.965215</v>
       </c>
     </row>
@@ -25613,7 +25559,7 @@
         <v>970.5</v>
       </c>
       <c r="I28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42.1098305084746</v>
       </c>
     </row>
@@ -25643,7 +25589,7 @@
         <v>1217.5</v>
       </c>
       <c r="I29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59.9384615384615</v>
       </c>
     </row>
@@ -25673,7 +25619,7 @@
         <v>1110.25</v>
       </c>
       <c r="I30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>57.8396710784314</v>
       </c>
     </row>
@@ -25703,7 +25649,7 @@
         <v>1107.5</v>
       </c>
       <c r="I31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50.010546875</v>
       </c>
     </row>
@@ -25733,7 +25679,7 @@
         <v>1020.75</v>
       </c>
       <c r="I32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>49.9994491525424</v>
       </c>
     </row>
@@ -25763,7 +25709,7 @@
         <v>977.5</v>
       </c>
       <c r="I33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44.840873015873</v>
       </c>
     </row>
@@ -25793,7 +25739,7 @@
         <v>1047.6</v>
       </c>
       <c r="I34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>58.2593356097561</v>
       </c>
     </row>
@@ -25823,7 +25769,7 @@
         <v>1062.67</v>
       </c>
       <c r="I35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47.720835046729</v>
       </c>
     </row>

--- a/062619_Tibetan_Blood_Gas_4200.xlsx
+++ b/062619_Tibetan_Blood_Gas_4200.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3181" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3385" uniqueCount="235">
   <si>
     <t>ID</t>
   </si>
@@ -723,6 +723,9 @@
   <si>
     <t>PVCO2</t>
   </si>
+  <si>
+    <t>PAlvO2_new</t>
+  </si>
 </sst>
 </file>
 
@@ -731,12 +734,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -801,10 +811,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -815,15 +825,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -835,12 +845,13 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1168,11 +1179,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="447506144"/>
-        <c:axId val="447510624"/>
+        <c:axId val="160711728"/>
+        <c:axId val="160712288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="447506144"/>
+        <c:axId val="160711728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="10"/>
@@ -1285,12 +1296,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="447510624"/>
+        <c:crossAx val="160712288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="447510624"/>
+        <c:axId val="160712288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1402,7 +1413,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="447506144"/>
+        <c:crossAx val="160711728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1791,11 +1802,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="364695552"/>
-        <c:axId val="364696112"/>
+        <c:axId val="160715088"/>
+        <c:axId val="160715648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="364695552"/>
+        <c:axId val="160715088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="10"/>
@@ -1908,12 +1919,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="364696112"/>
+        <c:crossAx val="160715648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="364696112"/>
+        <c:axId val="160715648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2025,7 +2036,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="364695552"/>
+        <c:crossAx val="160715088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2408,11 +2419,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="90779008"/>
-        <c:axId val="90785168"/>
+        <c:axId val="208007056"/>
+        <c:axId val="208007616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="90779008"/>
+        <c:axId val="208007056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -2526,12 +2537,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90785168"/>
+        <c:crossAx val="208007616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="90785168"/>
+        <c:axId val="208007616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2643,7 +2654,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90779008"/>
+        <c:crossAx val="208007056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3110,11 +3121,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="155594672"/>
-        <c:axId val="155586832"/>
+        <c:axId val="208010416"/>
+        <c:axId val="208010976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="155594672"/>
+        <c:axId val="208010416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="10"/>
@@ -3227,12 +3238,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155586832"/>
+        <c:crossAx val="208010976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="155586832"/>
+        <c:axId val="208010976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3344,7 +3355,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155594672"/>
+        <c:crossAx val="208010416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3907,11 +3918,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="347665568"/>
-        <c:axId val="347662768"/>
+        <c:axId val="208013776"/>
+        <c:axId val="208134048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="347665568"/>
+        <c:axId val="208013776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="10"/>
@@ -4024,12 +4035,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="347662768"/>
+        <c:crossAx val="208134048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="347662768"/>
+        <c:axId val="208134048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4149,7 +4160,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="347665568"/>
+        <c:crossAx val="208013776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7422,11 +7433,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT207"/>
+  <dimension ref="A1:AV207"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB31" sqref="AB31"/>
+      <selection pane="bottomLeft" activeCell="AJ20" sqref="AJ20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -7462,9 +7473,11 @@
     <col min="41" max="41" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="43" max="44" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46">
+    <row r="1" spans="1:48">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7603,8 +7616,14 @@
       <c r="AT1" t="s">
         <v>233</v>
       </c>
+      <c r="AU1" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AV1" s="9" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="2" spans="1:46">
+    <row r="2" spans="1:48">
       <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
@@ -7749,8 +7768,16 @@
       <c r="AT2" t="s">
         <v>71</v>
       </c>
+      <c r="AU2" s="5">
+        <f>AK2/AJ2</f>
+        <v>1.3162191354148352</v>
+      </c>
+      <c r="AV2" s="6">
+        <f xml:space="preserve"> AR2 - (N2/AU2) + 0.2092 * N2 * ((1-AU2)/AU2)</f>
+        <v>58.151233916030534</v>
+      </c>
     </row>
-    <row r="3" spans="1:46">
+    <row r="3" spans="1:48">
       <c r="A3" s="2" t="s">
         <v>46</v>
       </c>
@@ -7897,8 +7924,16 @@
       <c r="AT3">
         <v>44.7</v>
       </c>
+      <c r="AU3" s="5">
+        <f t="shared" ref="AU3:AU37" si="6">AK3/AJ3</f>
+        <v>1.1859861899909501</v>
+      </c>
+      <c r="AV3" s="6">
+        <f t="shared" ref="AV3:AV37" si="7" xml:space="preserve"> AR3 - (N3/AU3) + 0.2092 * N3 * ((1-AU3)/AU3)</f>
+        <v>57.857981246507606</v>
+      </c>
     </row>
-    <row r="4" spans="1:46">
+    <row r="4" spans="1:48">
       <c r="A4" s="2" t="s">
         <v>48</v>
       </c>
@@ -7980,11 +8015,11 @@
         <v>42.064100000000003</v>
       </c>
       <c r="AA4" s="14">
-        <f t="shared" ref="AA4:AA37" si="6">Y4-(AJ4/(10*AF4))</f>
+        <f t="shared" ref="AA4:AA37" si="8">Y4-(AJ4/(10*AF4))</f>
         <v>8.854466414253892</v>
       </c>
       <c r="AB4" s="14">
-        <f t="shared" ref="AB4:AB37" si="7">Z4+(AJ4/(10*AF4))</f>
+        <f t="shared" ref="AB4:AB37" si="9">Z4+(AJ4/(10*AF4))</f>
         <v>50.402713585746113</v>
       </c>
       <c r="AC4">
@@ -8045,8 +8080,16 @@
       <c r="AT4">
         <v>44.6</v>
       </c>
+      <c r="AU4" s="5">
+        <f t="shared" si="6"/>
+        <v>1.2903082567949706</v>
+      </c>
+      <c r="AV4" s="6">
+        <f t="shared" si="7"/>
+        <v>56.133065483327599</v>
+      </c>
     </row>
-    <row r="5" spans="1:46">
+    <row r="5" spans="1:48">
       <c r="A5" s="2" t="s">
         <v>50</v>
       </c>
@@ -8128,11 +8171,11 @@
         <v>32.388199999999998</v>
       </c>
       <c r="AA5" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.1576249202839897</v>
       </c>
       <c r="AB5" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>43.913319079716004</v>
       </c>
       <c r="AC5">
@@ -8193,8 +8236,16 @@
       <c r="AT5">
         <v>46.6</v>
       </c>
+      <c r="AU5" s="5">
+        <f t="shared" si="6"/>
+        <v>1.3203368683718029</v>
+      </c>
+      <c r="AV5" s="6">
+        <f t="shared" si="7"/>
+        <v>58.988796314670452</v>
+      </c>
     </row>
-    <row r="6" spans="1:46">
+    <row r="6" spans="1:48">
       <c r="A6" s="2" t="s">
         <v>52</v>
       </c>
@@ -8276,11 +8327,11 @@
         <v>35.490499999999997</v>
       </c>
       <c r="AA6" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.4081817649411228</v>
       </c>
       <c r="AB6" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>45.75044223505887</v>
       </c>
       <c r="AC6">
@@ -8341,8 +8392,16 @@
       <c r="AT6">
         <v>48.7</v>
       </c>
+      <c r="AU6" s="5">
+        <f t="shared" si="6"/>
+        <v>1.1814638371589432</v>
+      </c>
+      <c r="AV6" s="6">
+        <f t="shared" si="7"/>
+        <v>53.014608064516125</v>
+      </c>
     </row>
-    <row r="7" spans="1:46">
+    <row r="7" spans="1:48">
       <c r="A7" s="2" t="s">
         <v>54</v>
       </c>
@@ -8424,11 +8483,11 @@
         <v>39.192100000000003</v>
       </c>
       <c r="AA7" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>11.023798873720136</v>
       </c>
       <c r="AB7" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>47.400291126279868</v>
       </c>
       <c r="AC7">
@@ -8489,8 +8548,16 @@
       <c r="AT7">
         <v>45</v>
       </c>
+      <c r="AU7" s="5">
+        <f t="shared" si="6"/>
+        <v>1.3251559251559251</v>
+      </c>
+      <c r="AV7" s="6">
+        <f t="shared" si="7"/>
+        <v>55.440561280200818</v>
+      </c>
     </row>
-    <row r="8" spans="1:46">
+    <row r="8" spans="1:48">
       <c r="A8" s="2" t="s">
         <v>56</v>
       </c>
@@ -8572,11 +8639,11 @@
         <v>39.185600000000001</v>
       </c>
       <c r="AA8" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.6051393072652651</v>
       </c>
       <c r="AB8" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>51.775510692734734</v>
       </c>
       <c r="AC8">
@@ -8637,8 +8704,16 @@
       <c r="AT8">
         <v>49.5</v>
       </c>
+      <c r="AU8" s="5">
+        <f t="shared" si="6"/>
+        <v>1.2216257668711656</v>
+      </c>
+      <c r="AV8" s="6">
+        <f t="shared" si="7"/>
+        <v>55.434109227871929</v>
+      </c>
     </row>
-    <row r="9" spans="1:46">
+    <row r="9" spans="1:48">
       <c r="A9" s="2" t="s">
         <v>58</v>
       </c>
@@ -8720,11 +8795,11 @@
         <v>37.460500000000003</v>
       </c>
       <c r="AA9" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.7809697290108062</v>
       </c>
       <c r="AB9" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>44.783858270989199</v>
       </c>
       <c r="AC9">
@@ -8785,8 +8860,16 @@
       <c r="AT9">
         <v>40.299999999999997</v>
       </c>
+      <c r="AU9" s="5">
+        <f t="shared" si="6"/>
+        <v>1.2922814982973894</v>
+      </c>
+      <c r="AV9" s="6">
+        <f t="shared" si="7"/>
+        <v>60.510170750988152</v>
+      </c>
     </row>
-    <row r="10" spans="1:46">
+    <row r="10" spans="1:48">
       <c r="A10" s="2" t="s">
         <v>61</v>
       </c>
@@ -8868,11 +8951,11 @@
         <v>41.351999999999997</v>
       </c>
       <c r="AA10" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.8958921620830882</v>
       </c>
       <c r="AB10" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>48.385352837916905</v>
       </c>
       <c r="AC10">
@@ -8933,8 +9016,16 @@
       <c r="AT10">
         <v>43.2</v>
       </c>
+      <c r="AU10" s="5">
+        <f t="shared" si="6"/>
+        <v>1.4475873544093179</v>
+      </c>
+      <c r="AV10" s="6">
+        <f t="shared" si="7"/>
+        <v>58.12128689655173</v>
+      </c>
     </row>
-    <row r="11" spans="1:46">
+    <row r="11" spans="1:48">
       <c r="A11" s="2" t="s">
         <v>63</v>
       </c>
@@ -9016,11 +9107,11 @@
         <v>44.3232</v>
       </c>
       <c r="AA11" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.3116432351340759</v>
       </c>
       <c r="AB11" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>56.818584764865925</v>
       </c>
       <c r="AC11">
@@ -9081,8 +9172,16 @@
       <c r="AT11">
         <v>53.2</v>
       </c>
+      <c r="AU11" s="5">
+        <f t="shared" si="6"/>
+        <v>1.101339398534243</v>
+      </c>
+      <c r="AV11" s="6">
+        <f t="shared" si="7"/>
+        <v>53.200017255621837</v>
+      </c>
     </row>
-    <row r="12" spans="1:46">
+    <row r="12" spans="1:48">
       <c r="A12" s="2" t="s">
         <v>65</v>
       </c>
@@ -9164,11 +9263,11 @@
         <v>41.181800000000003</v>
       </c>
       <c r="AA12" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.4834561952090919</v>
       </c>
       <c r="AB12" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>46.354430804790908</v>
       </c>
       <c r="AC12">
@@ -9229,8 +9328,16 @@
       <c r="AT12">
         <v>41.1</v>
       </c>
+      <c r="AU12" s="5">
+        <f t="shared" si="6"/>
+        <v>1.0720429954644335</v>
+      </c>
+      <c r="AV12" s="6">
+        <f t="shared" si="7"/>
+        <v>50.859262631299742</v>
+      </c>
     </row>
-    <row r="13" spans="1:46">
+    <row r="13" spans="1:48">
       <c r="A13" s="2" t="s">
         <v>67</v>
       </c>
@@ -9312,11 +9419,11 @@
         <v>47.023499999999999</v>
       </c>
       <c r="AA13" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.4503553872665549</v>
       </c>
       <c r="AB13" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>55.346209612733446</v>
       </c>
       <c r="AC13">
@@ -9377,8 +9484,16 @@
       <c r="AT13">
         <v>44.1</v>
       </c>
+      <c r="AU13" s="5">
+        <f t="shared" si="6"/>
+        <v>1.1957055667408054</v>
+      </c>
+      <c r="AV13" s="6">
+        <f t="shared" si="7"/>
+        <v>57.077061447726848</v>
+      </c>
     </row>
-    <row r="14" spans="1:46">
+    <row r="14" spans="1:48">
       <c r="A14" s="2" t="s">
         <v>69</v>
       </c>
@@ -9522,8 +9637,14 @@
       <c r="AT14" t="s">
         <v>71</v>
       </c>
+      <c r="AU14" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV14" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="15" spans="1:46">
+    <row r="15" spans="1:48">
       <c r="A15" s="2" t="s">
         <v>72</v>
       </c>
@@ -9605,11 +9726,11 @@
         <v>36.330399999999997</v>
       </c>
       <c r="AA15" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.2658781138211346</v>
       </c>
       <c r="AB15" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>45.11901788617886</v>
       </c>
       <c r="AC15">
@@ -9670,8 +9791,16 @@
       <c r="AT15">
         <v>45.6</v>
       </c>
+      <c r="AU15" s="5">
+        <f t="shared" si="6"/>
+        <v>1.0730804810360777</v>
+      </c>
+      <c r="AV15" s="6">
+        <f t="shared" si="7"/>
+        <v>52.566598620689646</v>
+      </c>
     </row>
-    <row r="16" spans="1:46">
+    <row r="16" spans="1:48">
       <c r="A16" s="2" t="s">
         <v>74</v>
       </c>
@@ -9815,8 +9944,16 @@
       <c r="AT16" t="s">
         <v>71</v>
       </c>
+      <c r="AU16" s="5">
+        <f t="shared" si="6"/>
+        <v>1.1428689623219102</v>
+      </c>
+      <c r="AV16" s="6">
+        <f t="shared" si="7"/>
+        <v>48.599771931602646</v>
+      </c>
     </row>
-    <row r="17" spans="1:46">
+    <row r="17" spans="1:48">
       <c r="A17" s="2" t="s">
         <v>76</v>
       </c>
@@ -9898,11 +10035,11 @@
         <v>33.718600000000002</v>
       </c>
       <c r="AA17" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10.846393902154917</v>
       </c>
       <c r="AB17" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>39.973696097845078</v>
       </c>
       <c r="AC17">
@@ -9963,8 +10100,16 @@
       <c r="AT17">
         <v>40.299999999999997</v>
       </c>
+      <c r="AU17" s="5">
+        <f t="shared" si="6"/>
+        <v>1.2737430167597765</v>
+      </c>
+      <c r="AV17" s="6">
+        <f t="shared" si="7"/>
+        <v>60.242978947368421</v>
+      </c>
     </row>
-    <row r="18" spans="1:46">
+    <row r="18" spans="1:48">
       <c r="A18" s="2" t="s">
         <v>79</v>
       </c>
@@ -10046,11 +10191,11 @@
         <v>27.883199999999999</v>
       </c>
       <c r="AA18" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8.3826624773240077</v>
       </c>
       <c r="AB18" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>38.570661522675991</v>
       </c>
       <c r="AC18">
@@ -10111,8 +10256,16 @@
       <c r="AT18">
         <v>45</v>
       </c>
+      <c r="AU18" s="5">
+        <f t="shared" si="6"/>
+        <v>1.4553571428571428</v>
+      </c>
+      <c r="AV18" s="6">
+        <f t="shared" si="7"/>
+        <v>61.771190184049075</v>
+      </c>
     </row>
-    <row r="19" spans="1:46">
+    <row r="19" spans="1:48">
       <c r="A19" s="2" t="s">
         <v>81</v>
       </c>
@@ -10194,11 +10347,11 @@
         <v>37.319800000000001</v>
       </c>
       <c r="AA19" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.1726236803519203</v>
       </c>
       <c r="AB19" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>50.252351319648078</v>
       </c>
       <c r="AC19">
@@ -10259,8 +10412,16 @@
       <c r="AT19">
         <v>54</v>
       </c>
+      <c r="AU19" s="5">
+        <f t="shared" si="6"/>
+        <v>1.3708791208791209</v>
+      </c>
+      <c r="AV19" s="6">
+        <f t="shared" si="7"/>
+        <v>57.84163607214429</v>
+      </c>
     </row>
-    <row r="20" spans="1:46">
+    <row r="20" spans="1:48">
       <c r="A20" s="2" t="s">
         <v>83</v>
       </c>
@@ -10342,11 +10503,11 @@
         <v>41.067999999999998</v>
       </c>
       <c r="AA20" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.730432232567594</v>
       </c>
       <c r="AB20" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>50.004775767432406</v>
       </c>
       <c r="AC20">
@@ -10407,8 +10568,16 @@
       <c r="AT20">
         <v>53.1</v>
       </c>
+      <c r="AU20" s="5">
+        <f t="shared" si="6"/>
+        <v>1.3812556869881711</v>
+      </c>
+      <c r="AV20" s="6">
+        <f t="shared" si="7"/>
+        <v>52.356021343873515</v>
+      </c>
     </row>
-    <row r="21" spans="1:46">
+    <row r="21" spans="1:48">
       <c r="A21" s="2" t="s">
         <v>85</v>
       </c>
@@ -10552,8 +10721,14 @@
       <c r="AT21" t="s">
         <v>71</v>
       </c>
+      <c r="AU21" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV21" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="22" spans="1:46">
+    <row r="22" spans="1:48">
       <c r="A22" s="2" t="s">
         <v>87</v>
       </c>
@@ -10635,11 +10810,11 @@
         <v>30.747399999999999</v>
       </c>
       <c r="AA22" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.136465379539322</v>
       </c>
       <c r="AB22" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>42.758190620460674</v>
       </c>
       <c r="AC22">
@@ -10700,8 +10875,16 @@
       <c r="AT22">
         <v>50.9</v>
       </c>
+      <c r="AU22" s="5">
+        <f t="shared" si="6"/>
+        <v>1.1551485832757429</v>
+      </c>
+      <c r="AV22" s="6">
+        <f t="shared" si="7"/>
+        <v>56.029582291355062</v>
+      </c>
     </row>
-    <row r="23" spans="1:46">
+    <row r="23" spans="1:48">
       <c r="A23" s="2" t="s">
         <v>89</v>
       </c>
@@ -10783,11 +10966,11 @@
         <v>37.535200000000003</v>
       </c>
       <c r="AA23" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.3600900431328018</v>
       </c>
       <c r="AB23" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>48.272997956867201</v>
       </c>
       <c r="AC23">
@@ -10848,8 +11031,16 @@
       <c r="AT23">
         <v>48.1</v>
       </c>
+      <c r="AU23" s="5">
+        <f t="shared" si="6"/>
+        <v>1.370884929024464</v>
+      </c>
+      <c r="AV23" s="6">
+        <f t="shared" si="7"/>
+        <v>59.990682617316594</v>
+      </c>
     </row>
-    <row r="24" spans="1:46">
+    <row r="24" spans="1:48">
       <c r="A24" s="2" t="s">
         <v>91</v>
       </c>
@@ -10931,11 +11122,11 @@
         <v>36.700400000000002</v>
       </c>
       <c r="AA24" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.4638302773375571</v>
       </c>
       <c r="AB24" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>46.072824722662446</v>
       </c>
       <c r="AC24">
@@ -10996,8 +11187,16 @@
       <c r="AT24">
         <v>51.1</v>
       </c>
+      <c r="AU24" s="5">
+        <f t="shared" si="6"/>
+        <v>1.3743659113966857</v>
+      </c>
+      <c r="AV24" s="6">
+        <f t="shared" si="7"/>
+        <v>54.597865748031495</v>
+      </c>
     </row>
-    <row r="25" spans="1:46">
+    <row r="25" spans="1:48">
       <c r="A25" s="2" t="s">
         <v>93</v>
       </c>
@@ -11079,11 +11278,11 @@
         <v>33.8506</v>
       </c>
       <c r="AA25" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8.2346347343462991</v>
       </c>
       <c r="AB25" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>44.640381265653701</v>
       </c>
       <c r="AC25">
@@ -11144,8 +11343,16 @@
       <c r="AT25">
         <v>49.1</v>
       </c>
+      <c r="AU25" s="5">
+        <f t="shared" si="6"/>
+        <v>1.3782110801609408</v>
+      </c>
+      <c r="AV25" s="6">
+        <f t="shared" si="7"/>
+        <v>60.08880673703122</v>
+      </c>
     </row>
-    <row r="26" spans="1:46">
+    <row r="26" spans="1:48">
       <c r="A26" s="2" t="s">
         <v>95</v>
       </c>
@@ -11227,11 +11434,11 @@
         <v>37.641199999999998</v>
       </c>
       <c r="AA26" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.2517434701827952</v>
       </c>
       <c r="AB26" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>50.062536529817201</v>
       </c>
       <c r="AC26">
@@ -11292,8 +11499,16 @@
       <c r="AT26">
         <v>51.1</v>
       </c>
+      <c r="AU26" s="5">
+        <f t="shared" si="6"/>
+        <v>1.2545235223160434</v>
+      </c>
+      <c r="AV26" s="6">
+        <f t="shared" si="7"/>
+        <v>56.816875769230762</v>
+      </c>
     </row>
-    <row r="27" spans="1:46">
+    <row r="27" spans="1:48">
       <c r="A27" s="2" t="s">
         <v>97</v>
       </c>
@@ -11375,11 +11590,11 @@
         <v>39.9572</v>
       </c>
       <c r="AA27" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.65976765284969474</v>
       </c>
       <c r="AB27" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>53.587381347150306</v>
       </c>
       <c r="AC27">
@@ -11440,8 +11655,16 @@
       <c r="AT27">
         <v>57.9</v>
       </c>
+      <c r="AU27" s="5">
+        <f t="shared" si="6"/>
+        <v>1.1535994297933001</v>
+      </c>
+      <c r="AV27" s="6">
+        <f t="shared" si="7"/>
+        <v>51.528469694161259</v>
+      </c>
     </row>
-    <row r="28" spans="1:46">
+    <row r="28" spans="1:48">
       <c r="A28" s="2" t="s">
         <v>99</v>
       </c>
@@ -11523,11 +11746,11 @@
         <v>43.8874</v>
       </c>
       <c r="AA28" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.6282730227752982</v>
       </c>
       <c r="AB28" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>53.964882977224697</v>
       </c>
       <c r="AC28">
@@ -11588,8 +11811,16 @@
       <c r="AT28">
         <v>46.8</v>
       </c>
+      <c r="AU28" s="5">
+        <f t="shared" si="6"/>
+        <v>1.3327120223671949</v>
+      </c>
+      <c r="AV28" s="6">
+        <f t="shared" si="7"/>
+        <v>57.856798881118884</v>
+      </c>
     </row>
-    <row r="29" spans="1:46">
+    <row r="29" spans="1:48">
       <c r="A29" s="2" t="s">
         <v>101</v>
       </c>
@@ -11671,11 +11902,11 @@
         <v>46.826300000000003</v>
       </c>
       <c r="AA29" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.8755997619047626</v>
       </c>
       <c r="AB29" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>57.064395238095244</v>
       </c>
       <c r="AC29">
@@ -11736,8 +11967,16 @@
       <c r="AT29">
         <v>50.1</v>
       </c>
+      <c r="AU29" s="5">
+        <f t="shared" si="6"/>
+        <v>1.2366925064599483</v>
+      </c>
+      <c r="AV29" s="6">
+        <f t="shared" si="7"/>
+        <v>53.140535562055994</v>
+      </c>
     </row>
-    <row r="30" spans="1:46">
+    <row r="30" spans="1:48">
       <c r="A30" s="2" t="s">
         <v>103</v>
       </c>
@@ -11819,11 +12058,11 @@
         <v>47.922400000000003</v>
       </c>
       <c r="AA30" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.0257960251572289</v>
       </c>
       <c r="AB30" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>58.095355974842775</v>
       </c>
       <c r="AC30">
@@ -11884,8 +12123,16 @@
       <c r="AT30">
         <v>50.5</v>
       </c>
+      <c r="AU30" s="5">
+        <f t="shared" si="6"/>
+        <v>1.1421947449768162</v>
+      </c>
+      <c r="AV30" s="6">
+        <f t="shared" si="7"/>
+        <v>52.688553721244929</v>
+      </c>
     </row>
-    <row r="31" spans="1:46">
+    <row r="31" spans="1:48">
       <c r="A31" s="2" t="s">
         <v>105</v>
       </c>
@@ -11967,11 +12214,11 @@
         <v>39.383800000000001</v>
       </c>
       <c r="AA31" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.3029594980511767</v>
       </c>
       <c r="AB31" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>47.636638501948823</v>
       </c>
       <c r="AC31">
@@ -12032,8 +12279,16 @@
       <c r="AT31">
         <v>42.8</v>
       </c>
+      <c r="AU31" s="5">
+        <f t="shared" si="6"/>
+        <v>1.1913757700205339</v>
+      </c>
+      <c r="AV31" s="6">
+        <f t="shared" si="7"/>
+        <v>54.908146432264729</v>
+      </c>
     </row>
-    <row r="32" spans="1:46">
+    <row r="32" spans="1:48">
       <c r="A32" s="2" t="s">
         <v>107</v>
       </c>
@@ -12115,11 +12370,11 @@
         <v>34.1248</v>
       </c>
       <c r="AA32" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.0827055160117789</v>
       </c>
       <c r="AB32" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>41.082561483988222</v>
       </c>
       <c r="AC32">
@@ -12180,8 +12435,16 @@
       <c r="AT32">
         <v>40</v>
       </c>
+      <c r="AU32" s="5">
+        <f t="shared" si="6"/>
+        <v>1.1853186219319973</v>
+      </c>
+      <c r="AV32" s="6">
+        <f t="shared" si="7"/>
+        <v>59.729890805471129</v>
+      </c>
     </row>
-    <row r="33" spans="1:46">
+    <row r="33" spans="1:48">
       <c r="A33" s="2" t="s">
         <v>109</v>
       </c>
@@ -12263,11 +12526,11 @@
         <v>33.492100000000001</v>
       </c>
       <c r="AA33" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.2130506103869205</v>
       </c>
       <c r="AB33" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>42.658249389613076</v>
       </c>
       <c r="AC33">
@@ -12328,8 +12591,16 @@
       <c r="AT33">
         <v>47.2</v>
       </c>
+      <c r="AU33" s="5">
+        <f t="shared" si="6"/>
+        <v>1.2911963882618511</v>
+      </c>
+      <c r="AV33" s="6">
+        <f t="shared" si="7"/>
+        <v>56.550232167832164</v>
+      </c>
     </row>
-    <row r="34" spans="1:46">
+    <row r="34" spans="1:48">
       <c r="A34" s="2" t="s">
         <v>111</v>
       </c>
@@ -12411,11 +12682,11 @@
         <v>41.586599999999997</v>
       </c>
       <c r="AA34" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.5347320991420368</v>
       </c>
       <c r="AB34" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>51.317295900857957</v>
       </c>
       <c r="AC34">
@@ -12476,8 +12747,16 @@
       <c r="AT34">
         <v>48.8</v>
       </c>
+      <c r="AU34" s="5">
+        <f t="shared" si="6"/>
+        <v>1.2356110702914525</v>
+      </c>
+      <c r="AV34" s="6">
+        <f t="shared" si="7"/>
+        <v>55.63134747274529</v>
+      </c>
     </row>
-    <row r="35" spans="1:46">
+    <row r="35" spans="1:48">
       <c r="A35" s="2" t="s">
         <v>113</v>
       </c>
@@ -12559,11 +12838,11 @@
         <v>27.812899999999999</v>
       </c>
       <c r="AA35" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.6577398354218857</v>
       </c>
       <c r="AB35" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>34.345899164578114</v>
       </c>
       <c r="AC35">
@@ -12624,8 +12903,16 @@
       <c r="AT35">
         <v>38.6</v>
       </c>
+      <c r="AU35" s="5">
+        <f t="shared" si="6"/>
+        <v>1.3012787723785166</v>
+      </c>
+      <c r="AV35" s="6">
+        <f t="shared" si="7"/>
+        <v>63.29703254716982</v>
+      </c>
     </row>
-    <row r="36" spans="1:46">
+    <row r="36" spans="1:48">
       <c r="A36" s="2" t="s">
         <v>115</v>
       </c>
@@ -12707,11 +12994,11 @@
         <v>32.801600000000001</v>
       </c>
       <c r="AA36" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.6860331325268092</v>
       </c>
       <c r="AB36" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>42.057274867473183</v>
       </c>
       <c r="AC36">
@@ -12772,8 +13059,16 @@
       <c r="AT36">
         <v>49.2</v>
       </c>
+      <c r="AU36" s="5">
+        <f t="shared" si="6"/>
+        <v>1.168384879725086</v>
+      </c>
+      <c r="AV36" s="6">
+        <f t="shared" si="7"/>
+        <v>52.718119999999999</v>
+      </c>
     </row>
-    <row r="37" spans="1:46">
+    <row r="37" spans="1:48">
       <c r="A37" s="2" t="s">
         <v>117</v>
       </c>
@@ -12855,11 +13150,11 @@
         <v>37.433999999999997</v>
       </c>
       <c r="AA37" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.8501418277679962</v>
       </c>
       <c r="AB37" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>45.124158172232001</v>
       </c>
       <c r="AC37">
@@ -12920,8 +13215,16 @@
       <c r="AT37">
         <v>44.6</v>
       </c>
+      <c r="AU37" s="5">
+        <f t="shared" si="6"/>
+        <v>1.1552692745631288</v>
+      </c>
+      <c r="AV37" s="6">
+        <f t="shared" si="7"/>
+        <v>54.244296385836584</v>
+      </c>
     </row>
-    <row r="38" spans="1:46">
+    <row r="38" spans="1:48">
       <c r="A38" s="2" t="s">
         <v>119</v>
       </c>
@@ -13060,8 +13363,14 @@
       <c r="AT38" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU38" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV38" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="39" spans="1:46">
+    <row r="39" spans="1:48">
       <c r="A39" s="2" t="s">
         <v>121</v>
       </c>
@@ -13200,8 +13509,14 @@
       <c r="AT39" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU39" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV39" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="40" spans="1:46">
+    <row r="40" spans="1:48">
       <c r="A40" s="2" t="s">
         <v>122</v>
       </c>
@@ -13340,8 +13655,14 @@
       <c r="AT40" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU40" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV40" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="41" spans="1:46">
+    <row r="41" spans="1:48">
       <c r="A41" s="2" t="s">
         <v>124</v>
       </c>
@@ -13480,8 +13801,14 @@
       <c r="AT41" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU41" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV41" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="42" spans="1:46">
+    <row r="42" spans="1:48">
       <c r="A42" s="2" t="s">
         <v>125</v>
       </c>
@@ -13620,8 +13947,14 @@
       <c r="AT42" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU42" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV42" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="43" spans="1:46">
+    <row r="43" spans="1:48">
       <c r="A43" s="2" t="s">
         <v>126</v>
       </c>
@@ -13760,8 +14093,14 @@
       <c r="AT43" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU43" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV43" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="44" spans="1:46">
+    <row r="44" spans="1:48">
       <c r="A44" s="2" t="s">
         <v>127</v>
       </c>
@@ -13900,8 +14239,14 @@
       <c r="AT44" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU44" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV44" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="45" spans="1:46">
+    <row r="45" spans="1:48">
       <c r="A45" s="2" t="s">
         <v>128</v>
       </c>
@@ -14040,8 +14385,14 @@
       <c r="AT45" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU45" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV45" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="46" spans="1:46">
+    <row r="46" spans="1:48">
       <c r="A46" s="2" t="s">
         <v>129</v>
       </c>
@@ -14180,8 +14531,14 @@
       <c r="AT46" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU46" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV46" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="47" spans="1:46">
+    <row r="47" spans="1:48">
       <c r="A47" s="2" t="s">
         <v>130</v>
       </c>
@@ -14320,8 +14677,14 @@
       <c r="AT47" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU47" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV47" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="48" spans="1:46">
+    <row r="48" spans="1:48">
       <c r="A48" s="2" t="s">
         <v>131</v>
       </c>
@@ -14460,8 +14823,14 @@
       <c r="AT48" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU48" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV48" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="49" spans="1:46">
+    <row r="49" spans="1:48">
       <c r="A49" s="2" t="s">
         <v>132</v>
       </c>
@@ -14600,8 +14969,14 @@
       <c r="AT49" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU49" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV49" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="50" spans="1:46">
+    <row r="50" spans="1:48">
       <c r="A50" s="2" t="s">
         <v>133</v>
       </c>
@@ -14740,8 +15115,14 @@
       <c r="AT50" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU50" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV50" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="51" spans="1:46">
+    <row r="51" spans="1:48">
       <c r="A51" s="2" t="s">
         <v>134</v>
       </c>
@@ -14880,8 +15261,14 @@
       <c r="AT51" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU51" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV51" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="52" spans="1:46">
+    <row r="52" spans="1:48">
       <c r="A52" s="2" t="s">
         <v>135</v>
       </c>
@@ -15020,8 +15407,14 @@
       <c r="AT52" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU52" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV52" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="53" spans="1:46">
+    <row r="53" spans="1:48">
       <c r="A53" s="2" t="s">
         <v>136</v>
       </c>
@@ -15160,8 +15553,14 @@
       <c r="AT53" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU53" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV53" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="54" spans="1:46">
+    <row r="54" spans="1:48">
       <c r="A54" s="2" t="s">
         <v>137</v>
       </c>
@@ -15300,8 +15699,14 @@
       <c r="AT54" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU54" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV54" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="55" spans="1:46">
+    <row r="55" spans="1:48">
       <c r="A55" s="2" t="s">
         <v>138</v>
       </c>
@@ -15440,8 +15845,14 @@
       <c r="AT55" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU55" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV55" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="56" spans="1:46">
+    <row r="56" spans="1:48">
       <c r="A56" s="2" t="s">
         <v>139</v>
       </c>
@@ -15580,8 +15991,14 @@
       <c r="AT56" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU56" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV56" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="57" spans="1:46">
+    <row r="57" spans="1:48">
       <c r="A57" s="2" t="s">
         <v>140</v>
       </c>
@@ -15720,8 +16137,14 @@
       <c r="AT57" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU57" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV57" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="58" spans="1:46">
+    <row r="58" spans="1:48">
       <c r="A58" s="2" t="s">
         <v>141</v>
       </c>
@@ -15860,8 +16283,14 @@
       <c r="AT58" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU58" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV58" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="59" spans="1:46">
+    <row r="59" spans="1:48">
       <c r="A59" s="2" t="s">
         <v>142</v>
       </c>
@@ -16000,8 +16429,14 @@
       <c r="AT59" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU59" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV59" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="60" spans="1:46">
+    <row r="60" spans="1:48">
       <c r="A60" s="2" t="s">
         <v>143</v>
       </c>
@@ -16140,8 +16575,14 @@
       <c r="AT60" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU60" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV60" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="61" spans="1:46">
+    <row r="61" spans="1:48">
       <c r="A61" s="2" t="s">
         <v>144</v>
       </c>
@@ -16280,8 +16721,14 @@
       <c r="AT61" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU61" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV61" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="62" spans="1:46">
+    <row r="62" spans="1:48">
       <c r="A62" s="2" t="s">
         <v>145</v>
       </c>
@@ -16420,8 +16867,14 @@
       <c r="AT62" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU62" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV62" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="63" spans="1:46">
+    <row r="63" spans="1:48">
       <c r="A63" s="2" t="s">
         <v>146</v>
       </c>
@@ -16560,8 +17013,14 @@
       <c r="AT63" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU63" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV63" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="64" spans="1:46">
+    <row r="64" spans="1:48">
       <c r="A64" s="2" t="s">
         <v>147</v>
       </c>
@@ -16700,8 +17159,14 @@
       <c r="AT64" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU64" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV64" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="65" spans="1:46">
+    <row r="65" spans="1:48">
       <c r="A65" s="2" t="s">
         <v>148</v>
       </c>
@@ -16840,8 +17305,14 @@
       <c r="AT65" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU65" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV65" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="66" spans="1:46">
+    <row r="66" spans="1:48">
       <c r="A66" s="2" t="s">
         <v>149</v>
       </c>
@@ -16914,7 +17385,7 @@
         <v>30.561</v>
       </c>
       <c r="Y66" s="14">
-        <f t="shared" ref="Y66:Y129" si="8">1.39*O66*J66/100+0.003*K66</f>
+        <f t="shared" ref="Y66:Y129" si="10">1.39*O66*J66/100+0.003*K66</f>
         <v>12.387780000000001</v>
       </c>
       <c r="Z66" s="17" t="s">
@@ -16980,8 +17451,14 @@
       <c r="AT66" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU66" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV66" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="67" spans="1:46">
+    <row r="67" spans="1:48">
       <c r="A67" s="2" t="s">
         <v>150</v>
       </c>
@@ -17026,7 +17503,7 @@
         <v>12.5</v>
       </c>
       <c r="P67" s="2">
-        <f t="shared" ref="P67:P130" si="9">O67*3</f>
+        <f t="shared" ref="P67:P130" si="11">O67*3</f>
         <v>37.5</v>
       </c>
       <c r="Q67" s="2">
@@ -17054,7 +17531,7 @@
         <v>30.106999999999999</v>
       </c>
       <c r="Y67" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>14.612000000000002</v>
       </c>
       <c r="Z67" s="17" t="s">
@@ -17120,8 +17597,14 @@
       <c r="AT67" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU67" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV67" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="68" spans="1:46">
+    <row r="68" spans="1:48">
       <c r="A68" s="2" t="s">
         <v>151</v>
       </c>
@@ -17166,7 +17649,7 @@
         <v>11.5</v>
       </c>
       <c r="P68" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>34.5</v>
       </c>
       <c r="Q68" s="2">
@@ -17194,7 +17677,7 @@
         <v>31.777000000000001</v>
       </c>
       <c r="Y68" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>13.573415000000001</v>
       </c>
       <c r="Z68" s="17" t="s">
@@ -17260,8 +17743,14 @@
       <c r="AT68" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU68" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV68" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="69" spans="1:46">
+    <row r="69" spans="1:48">
       <c r="A69" s="2" t="s">
         <v>152</v>
       </c>
@@ -17306,7 +17795,7 @@
         <v>13.3</v>
       </c>
       <c r="P69" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>39.900000000000006</v>
       </c>
       <c r="Q69" s="2">
@@ -17334,7 +17823,7 @@
         <v>28.29</v>
       </c>
       <c r="Y69" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>15.192418</v>
       </c>
       <c r="Z69" s="17" t="s">
@@ -17400,8 +17889,14 @@
       <c r="AT69" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU69" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV69" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="70" spans="1:46">
+    <row r="70" spans="1:48">
       <c r="A70" s="2" t="s">
         <v>153</v>
       </c>
@@ -17446,7 +17941,7 @@
         <v>13.3</v>
       </c>
       <c r="P70" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>39.900000000000006</v>
       </c>
       <c r="Q70" s="2">
@@ -17474,7 +17969,7 @@
         <v>28.76</v>
       </c>
       <c r="Y70" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>16.470534000000001</v>
       </c>
       <c r="Z70" s="17" t="s">
@@ -17540,8 +18035,14 @@
       <c r="AT70" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU70" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV70" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="71" spans="1:46">
+    <row r="71" spans="1:48">
       <c r="A71" s="2" t="s">
         <v>154</v>
       </c>
@@ -17586,7 +18087,7 @@
         <v>13.1</v>
       </c>
       <c r="P71" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>39.299999999999997</v>
       </c>
       <c r="Q71" s="2">
@@ -17614,7 +18115,7 @@
         <v>28.361000000000001</v>
       </c>
       <c r="Y71" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>15.412141999999999</v>
       </c>
       <c r="Z71" s="17" t="s">
@@ -17680,8 +18181,14 @@
       <c r="AT71" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU71" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV71" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="72" spans="1:46">
+    <row r="72" spans="1:48">
       <c r="A72" s="2" t="s">
         <v>155</v>
       </c>
@@ -17726,7 +18233,7 @@
         <v>13.4</v>
       </c>
       <c r="P72" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>40.200000000000003</v>
       </c>
       <c r="Q72" s="2">
@@ -17754,7 +18261,7 @@
         <v>28.178000000000001</v>
       </c>
       <c r="Y72" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>15.814465999999998</v>
       </c>
       <c r="Z72" s="17" t="s">
@@ -17820,8 +18327,14 @@
       <c r="AT72" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU72" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV72" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="73" spans="1:46">
+    <row r="73" spans="1:48">
       <c r="A73" s="2" t="s">
         <v>157</v>
       </c>
@@ -17866,7 +18379,7 @@
         <v>13.1</v>
       </c>
       <c r="P73" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>39.299999999999997</v>
       </c>
       <c r="Q73" s="2">
@@ -17894,7 +18407,7 @@
         <v>28.712</v>
       </c>
       <c r="Y73" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>15.833948999999999</v>
       </c>
       <c r="Z73" s="17" t="s">
@@ -17960,8 +18473,14 @@
       <c r="AT73" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU73" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV73" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="74" spans="1:46">
+    <row r="74" spans="1:48">
       <c r="A74" s="2" t="s">
         <v>158</v>
       </c>
@@ -18006,7 +18525,7 @@
         <v>16.2</v>
       </c>
       <c r="P74" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>48.599999999999994</v>
       </c>
       <c r="Q74" s="2">
@@ -18034,7 +18553,7 @@
         <v>28.803999999999998</v>
       </c>
       <c r="Y74" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>18.075845999999999</v>
       </c>
       <c r="Z74" s="17" t="s">
@@ -18100,8 +18619,14 @@
       <c r="AT74" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU74" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV74" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="75" spans="1:46">
+    <row r="75" spans="1:48">
       <c r="A75" s="2" t="s">
         <v>160</v>
       </c>
@@ -18146,7 +18671,7 @@
         <v>16.2</v>
       </c>
       <c r="P75" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>48.599999999999994</v>
       </c>
       <c r="Q75" s="2">
@@ -18174,7 +18699,7 @@
         <v>30.812000000000001</v>
       </c>
       <c r="Y75" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>17.843147999999992</v>
       </c>
       <c r="Z75" s="17" t="s">
@@ -18240,8 +18765,14 @@
       <c r="AT75" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU75" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV75" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="76" spans="1:46">
+    <row r="76" spans="1:48">
       <c r="A76" s="2" t="s">
         <v>161</v>
       </c>
@@ -18286,7 +18817,7 @@
         <v>16</v>
       </c>
       <c r="P76" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>48</v>
       </c>
       <c r="Q76" s="2">
@@ -18314,7 +18845,7 @@
         <v>29.98</v>
       </c>
       <c r="Y76" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>16.34196</v>
       </c>
       <c r="Z76" s="17" t="s">
@@ -18380,8 +18911,14 @@
       <c r="AT76" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU76" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV76" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="77" spans="1:46">
+    <row r="77" spans="1:48">
       <c r="A77" s="2" t="s">
         <v>162</v>
       </c>
@@ -18426,7 +18963,7 @@
         <v>17.600000000000001</v>
       </c>
       <c r="P77" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>52.800000000000004</v>
       </c>
       <c r="Q77" s="2">
@@ -18454,7 +18991,7 @@
         <v>29.986000000000001</v>
       </c>
       <c r="Y77" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>19.794591999999998</v>
       </c>
       <c r="Z77" s="17" t="s">
@@ -18520,8 +19057,14 @@
       <c r="AT77" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU77" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV77" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="78" spans="1:46">
+    <row r="78" spans="1:48">
       <c r="A78" s="2" t="s">
         <v>163</v>
       </c>
@@ -18566,7 +19109,7 @@
         <v>18.100000000000001</v>
       </c>
       <c r="P78" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>54.300000000000004</v>
       </c>
       <c r="Q78" s="2">
@@ -18594,7 +19137,7 @@
         <v>29.062000000000001</v>
       </c>
       <c r="Y78" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>19.152204000000001</v>
       </c>
       <c r="Z78" s="17" t="s">
@@ -18660,8 +19203,14 @@
       <c r="AT78" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU78" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV78" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="79" spans="1:46">
+    <row r="79" spans="1:48">
       <c r="A79" s="2" t="s">
         <v>164</v>
       </c>
@@ -18706,7 +19255,7 @@
         <v>15.9</v>
       </c>
       <c r="P79" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>47.7</v>
       </c>
       <c r="Q79" s="2">
@@ -18734,7 +19283,7 @@
         <v>30.318999999999999</v>
       </c>
       <c r="Y79" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>18.856445999999998</v>
       </c>
       <c r="Z79" s="17" t="s">
@@ -18800,8 +19349,14 @@
       <c r="AT79" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU79" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV79" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="80" spans="1:46">
+    <row r="80" spans="1:48">
       <c r="A80" s="2" t="s">
         <v>165</v>
       </c>
@@ -18846,7 +19401,7 @@
         <v>14</v>
       </c>
       <c r="P80" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>42</v>
       </c>
       <c r="Q80" s="2">
@@ -18874,7 +19429,7 @@
         <v>30.564</v>
       </c>
       <c r="Y80" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>15.915599999999998</v>
       </c>
       <c r="Z80" s="17" t="s">
@@ -18940,8 +19495,14 @@
       <c r="AT80" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU80" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV80" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="81" spans="1:46">
+    <row r="81" spans="1:48">
       <c r="A81" s="2" t="s">
         <v>166</v>
       </c>
@@ -18986,7 +19547,7 @@
         <v>12</v>
       </c>
       <c r="P81" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>36</v>
       </c>
       <c r="Q81" s="2">
@@ -19014,7 +19575,7 @@
         <v>29.295000000000002</v>
       </c>
       <c r="Y81" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>13.807920000000001</v>
       </c>
       <c r="Z81" s="17" t="s">
@@ -19080,8 +19641,14 @@
       <c r="AT81" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU81" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV81" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="82" spans="1:46">
+    <row r="82" spans="1:48">
       <c r="A82" s="2" t="s">
         <v>167</v>
       </c>
@@ -19126,7 +19693,7 @@
         <v>10.9</v>
       </c>
       <c r="P82" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>32.700000000000003</v>
       </c>
       <c r="Q82" s="2">
@@ -19154,7 +19721,7 @@
         <v>29.472000000000001</v>
       </c>
       <c r="Y82" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>11.286287</v>
       </c>
       <c r="Z82" s="17" t="s">
@@ -19220,8 +19787,14 @@
       <c r="AT82" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU82" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV82" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="83" spans="1:46">
+    <row r="83" spans="1:48">
       <c r="A83" s="2" t="s">
         <v>168</v>
       </c>
@@ -19266,7 +19839,7 @@
         <v>13.6</v>
       </c>
       <c r="P83" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>40.799999999999997</v>
       </c>
       <c r="Q83" s="2">
@@ -19294,7 +19867,7 @@
         <v>30.382999999999999</v>
       </c>
       <c r="Y83" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>16.176688000000002</v>
       </c>
       <c r="Z83" s="17" t="s">
@@ -19360,8 +19933,14 @@
       <c r="AT83" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU83" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV83" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="84" spans="1:46">
+    <row r="84" spans="1:48">
       <c r="A84" s="2" t="s">
         <v>169</v>
       </c>
@@ -19406,7 +19985,7 @@
         <v>10.3</v>
       </c>
       <c r="P84" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>30.900000000000002</v>
       </c>
       <c r="Q84" s="2">
@@ -19434,7 +20013,7 @@
         <v>30.535</v>
       </c>
       <c r="Y84" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>12.142329000000002</v>
       </c>
       <c r="Z84" s="17" t="s">
@@ -19500,8 +20079,14 @@
       <c r="AT84" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU84" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV84" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="85" spans="1:46">
+    <row r="85" spans="1:48">
       <c r="A85" s="2" t="s">
         <v>170</v>
       </c>
@@ -19546,7 +20131,7 @@
         <v>11.3</v>
       </c>
       <c r="P85" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>33.900000000000006</v>
       </c>
       <c r="Q85" s="2">
@@ -19574,7 +20159,7 @@
         <v>30.561</v>
       </c>
       <c r="Y85" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>12.138148000000001</v>
       </c>
       <c r="Z85" s="17" t="s">
@@ -19640,8 +20225,14 @@
       <c r="AT85" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU85" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV85" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="86" spans="1:46">
+    <row r="86" spans="1:48">
       <c r="A86" s="2" t="s">
         <v>171</v>
       </c>
@@ -19686,7 +20277,7 @@
         <v>15.2</v>
       </c>
       <c r="P86" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>45.599999999999994</v>
       </c>
       <c r="Q86" s="2">
@@ -19714,7 +20305,7 @@
         <v>28.29</v>
       </c>
       <c r="Y86" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>16.18928</v>
       </c>
       <c r="Z86" s="17" t="s">
@@ -19780,8 +20371,14 @@
       <c r="AT86" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU86" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV86" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="87" spans="1:46">
+    <row r="87" spans="1:48">
       <c r="A87" s="2" t="s">
         <v>172</v>
       </c>
@@ -19826,7 +20423,7 @@
         <v>13.6</v>
       </c>
       <c r="P87" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>40.799999999999997</v>
       </c>
       <c r="Q87" s="2">
@@ -19854,7 +20451,7 @@
         <v>28.178000000000001</v>
       </c>
       <c r="Y87" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>16.022456000000002</v>
       </c>
       <c r="Z87" s="17" t="s">
@@ -19920,8 +20517,14 @@
       <c r="AT87" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU87" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV87" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="88" spans="1:46">
+    <row r="88" spans="1:48">
       <c r="A88" s="2" t="s">
         <v>173</v>
       </c>
@@ -19966,7 +20569,7 @@
         <v>14.1</v>
       </c>
       <c r="P88" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>42.3</v>
       </c>
       <c r="Q88" s="2">
@@ -19994,7 +20597,7 @@
         <v>28.712</v>
       </c>
       <c r="Y88" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>16.319174999999998</v>
       </c>
       <c r="Z88" s="17" t="s">
@@ -20060,8 +20663,14 @@
       <c r="AT88" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU88" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV88" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="89" spans="1:46">
+    <row r="89" spans="1:48">
       <c r="A89" s="2" t="s">
         <v>174</v>
       </c>
@@ -20106,7 +20715,7 @@
         <v>16.3</v>
       </c>
       <c r="P89" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>48.900000000000006</v>
       </c>
       <c r="Q89" s="2">
@@ -20134,7 +20743,7 @@
         <v>28.3</v>
       </c>
       <c r="Y89" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>17.354320000000001</v>
       </c>
       <c r="Z89" s="17" t="s">
@@ -20200,8 +20809,14 @@
       <c r="AT89" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU89" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV89" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="90" spans="1:46">
+    <row r="90" spans="1:48">
       <c r="A90" s="2" t="s">
         <v>176</v>
       </c>
@@ -20246,7 +20861,7 @@
         <v>14.2</v>
       </c>
       <c r="P90" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>42.599999999999994</v>
       </c>
       <c r="Q90" s="2">
@@ -20274,7 +20889,7 @@
         <v>28.762</v>
       </c>
       <c r="Y90" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>14.850547999999995</v>
       </c>
       <c r="Z90" s="17" t="s">
@@ -20340,8 +20955,14 @@
       <c r="AT90" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU90" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV90" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="91" spans="1:46">
+    <row r="91" spans="1:48">
       <c r="A91" s="2" t="s">
         <v>177</v>
       </c>
@@ -20386,7 +21007,7 @@
         <v>15.9</v>
       </c>
       <c r="P91" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>47.7</v>
       </c>
       <c r="Q91" s="2">
@@ -20414,7 +21035,7 @@
         <v>28.428999999999998</v>
       </c>
       <c r="Y91" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>17.711295</v>
       </c>
       <c r="Z91" s="17" t="s">
@@ -20480,8 +21101,14 @@
       <c r="AT91" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU91" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV91" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="92" spans="1:46">
+    <row r="92" spans="1:48">
       <c r="A92" s="2" t="s">
         <v>178</v>
       </c>
@@ -20526,7 +21153,7 @@
         <v>13.9</v>
       </c>
       <c r="P92" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>41.7</v>
       </c>
       <c r="Q92" s="2">
@@ -20554,7 +21181,7 @@
         <v>28.387</v>
       </c>
       <c r="Y92" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>15.089454</v>
       </c>
       <c r="Z92" s="17" t="s">
@@ -20620,8 +21247,14 @@
       <c r="AT92" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU92" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV92" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="93" spans="1:46">
+    <row r="93" spans="1:48">
       <c r="A93" s="2" t="s">
         <v>179</v>
       </c>
@@ -20666,7 +21299,7 @@
         <v>15.3</v>
       </c>
       <c r="P93" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>45.900000000000006</v>
       </c>
       <c r="Q93" s="2">
@@ -20694,7 +21327,7 @@
         <v>29.334</v>
       </c>
       <c r="Y93" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>17.121065999999995</v>
       </c>
       <c r="Z93" s="17" t="s">
@@ -20760,8 +21393,14 @@
       <c r="AT93" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU93" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV93" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="94" spans="1:46">
+    <row r="94" spans="1:48">
       <c r="A94" s="2" t="s">
         <v>180</v>
       </c>
@@ -20806,7 +21445,7 @@
         <v>17.100000000000001</v>
       </c>
       <c r="P94" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>51.300000000000004</v>
       </c>
       <c r="Q94" s="2">
@@ -20834,7 +21473,7 @@
         <v>29.678000000000001</v>
       </c>
       <c r="Y94" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>18.327285</v>
       </c>
       <c r="Z94" s="17" t="s">
@@ -20900,8 +21539,14 @@
       <c r="AT94" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU94" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV94" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="95" spans="1:46">
+    <row r="95" spans="1:48">
       <c r="A95" s="2" t="s">
         <v>181</v>
       </c>
@@ -20946,7 +21591,7 @@
         <v>17.600000000000001</v>
       </c>
       <c r="P95" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>52.800000000000004</v>
       </c>
       <c r="Q95" s="2">
@@ -20974,7 +21619,7 @@
         <v>29.645</v>
       </c>
       <c r="Y95" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>19.644807999999998</v>
       </c>
       <c r="Z95" s="17" t="s">
@@ -21040,8 +21685,14 @@
       <c r="AT95" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU95" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV95" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="96" spans="1:46">
+    <row r="96" spans="1:48">
       <c r="A96" s="2" t="s">
         <v>182</v>
       </c>
@@ -21086,7 +21737,7 @@
         <v>14.6</v>
       </c>
       <c r="P96" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>43.8</v>
       </c>
       <c r="Q96" s="2">
@@ -21114,7 +21765,7 @@
         <v>28.920999999999999</v>
       </c>
       <c r="Y96" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>15.439676</v>
       </c>
       <c r="Z96" s="17" t="s">
@@ -21180,8 +21831,14 @@
       <c r="AT96" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU96" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV96" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="97" spans="1:46">
+    <row r="97" spans="1:48">
       <c r="A97" s="2" t="s">
         <v>183</v>
       </c>
@@ -21226,7 +21883,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="P97" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>48.300000000000004</v>
       </c>
       <c r="Q97" s="2">
@@ -21254,7 +21911,7 @@
         <v>28.916</v>
       </c>
       <c r="Y97" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>18.005441999999999</v>
       </c>
       <c r="Z97" s="17" t="s">
@@ -21320,8 +21977,14 @@
       <c r="AT97" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU97" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV97" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="98" spans="1:46">
+    <row r="98" spans="1:48">
       <c r="A98" s="2" t="s">
         <v>184</v>
       </c>
@@ -21366,7 +22029,7 @@
         <v>14.7</v>
       </c>
       <c r="P98" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>44.099999999999994</v>
       </c>
       <c r="Q98" s="2">
@@ -21394,7 +22057,7 @@
         <v>28.919</v>
       </c>
       <c r="Y98" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>16.534265999999995</v>
       </c>
       <c r="Z98" s="17" t="s">
@@ -21460,8 +22123,14 @@
       <c r="AT98" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU98" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV98" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="99" spans="1:46">
+    <row r="99" spans="1:48">
       <c r="A99" s="2" t="s">
         <v>185</v>
       </c>
@@ -21506,7 +22175,7 @@
         <v>15.1</v>
       </c>
       <c r="P99" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>45.3</v>
       </c>
       <c r="Q99" s="2">
@@ -21534,7 +22203,7 @@
         <v>29.498999999999999</v>
       </c>
       <c r="Y99" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>16.683331999999996</v>
       </c>
       <c r="Z99" s="17" t="s">
@@ -21600,8 +22269,14 @@
       <c r="AT99" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU99" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV99" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="100" spans="1:46">
+    <row r="100" spans="1:48">
       <c r="A100" s="2" t="s">
         <v>186</v>
       </c>
@@ -21646,7 +22321,7 @@
         <v>14.7</v>
       </c>
       <c r="P100" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>44.099999999999994</v>
       </c>
       <c r="Q100" s="2">
@@ -21674,7 +22349,7 @@
         <v>28.47</v>
       </c>
       <c r="Y100" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>16.575131999999996</v>
       </c>
       <c r="Z100" s="17" t="s">
@@ -21740,8 +22415,14 @@
       <c r="AT100" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU100" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV100" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="101" spans="1:46">
+    <row r="101" spans="1:48">
       <c r="A101" s="2" t="s">
         <v>187</v>
       </c>
@@ -21786,7 +22467,7 @@
         <v>16.2</v>
       </c>
       <c r="P101" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>48.599999999999994</v>
       </c>
       <c r="Q101" s="2">
@@ -21814,7 +22495,7 @@
         <v>29.462</v>
       </c>
       <c r="Y101" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>18.758867999999996</v>
       </c>
       <c r="Z101" s="17" t="s">
@@ -21880,8 +22561,14 @@
       <c r="AT101" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU101" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV101" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="102" spans="1:46">
+    <row r="102" spans="1:48">
       <c r="A102" s="2" t="s">
         <v>188</v>
       </c>
@@ -21926,7 +22613,7 @@
         <v>13.9</v>
       </c>
       <c r="P102" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>41.7</v>
       </c>
       <c r="Q102" s="2">
@@ -21954,7 +22641,7 @@
         <v>29.204000000000001</v>
       </c>
       <c r="Y102" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>15.172737999999997</v>
       </c>
       <c r="Z102" s="17" t="s">
@@ -22020,8 +22707,14 @@
       <c r="AT102" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU102" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV102" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="103" spans="1:46">
+    <row r="103" spans="1:48">
       <c r="A103" s="2" t="s">
         <v>189</v>
       </c>
@@ -22066,7 +22759,7 @@
         <v>12.9</v>
       </c>
       <c r="P103" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>38.700000000000003</v>
       </c>
       <c r="Q103" s="2">
@@ -22094,7 +22787,7 @@
         <v>30.183</v>
       </c>
       <c r="Y103" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>13.944870000000002</v>
       </c>
       <c r="Z103" s="17" t="s">
@@ -22160,8 +22853,14 @@
       <c r="AT103" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU103" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV103" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="104" spans="1:46">
+    <row r="104" spans="1:48">
       <c r="A104" s="2" t="s">
         <v>190</v>
       </c>
@@ -22206,7 +22905,7 @@
         <v>12.5</v>
       </c>
       <c r="P104" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>37.5</v>
       </c>
       <c r="Q104" s="2">
@@ -22234,7 +22933,7 @@
         <v>30.106999999999999</v>
       </c>
       <c r="Y104" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>15.28725</v>
       </c>
       <c r="Z104" s="17" t="s">
@@ -22300,8 +22999,14 @@
       <c r="AT104" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU104" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV104" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="105" spans="1:46">
+    <row r="105" spans="1:48">
       <c r="A105" s="2" t="s">
         <v>191</v>
       </c>
@@ -22346,7 +23051,7 @@
         <v>12.1</v>
       </c>
       <c r="P105" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>36.299999999999997</v>
       </c>
       <c r="Q105" s="2">
@@ -22374,7 +23079,7 @@
         <v>31.777000000000001</v>
       </c>
       <c r="Y105" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>13.437010000000001</v>
       </c>
       <c r="Z105" s="17" t="s">
@@ -22440,8 +23145,14 @@
       <c r="AT105" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU105" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV105" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="106" spans="1:46">
+    <row r="106" spans="1:48">
       <c r="A106" s="2" t="s">
         <v>192</v>
       </c>
@@ -22486,7 +23197,7 @@
         <v>14.9</v>
       </c>
       <c r="P106" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>44.7</v>
       </c>
       <c r="Q106" s="2">
@@ -22514,7 +23225,7 @@
         <v>28.29</v>
       </c>
       <c r="Y106" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>16.257157999999997</v>
       </c>
       <c r="Z106" s="17" t="s">
@@ -22580,8 +23291,14 @@
       <c r="AT106" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU106" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV106" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="107" spans="1:46">
+    <row r="107" spans="1:48">
       <c r="A107" s="2" t="s">
         <v>193</v>
       </c>
@@ -22626,7 +23343,7 @@
         <v>13.1</v>
       </c>
       <c r="P107" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>39.299999999999997</v>
       </c>
       <c r="Q107" s="2">
@@ -22654,7 +23371,7 @@
         <v>28.76</v>
       </c>
       <c r="Y107" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>14.738409000000001</v>
       </c>
       <c r="Z107" s="17" t="s">
@@ -22720,8 +23437,14 @@
       <c r="AT107" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU107" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV107" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="108" spans="1:46">
+    <row r="108" spans="1:48">
       <c r="A108" s="2" t="s">
         <v>194</v>
       </c>
@@ -22766,7 +23489,7 @@
         <v>13</v>
       </c>
       <c r="P108" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>39</v>
       </c>
       <c r="Q108" s="2">
@@ -22794,7 +23517,7 @@
         <v>28.361000000000001</v>
       </c>
       <c r="Y108" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>12.666580000000002</v>
       </c>
       <c r="Z108" s="17" t="s">
@@ -22860,8 +23583,14 @@
       <c r="AT108" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU108" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV108" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="109" spans="1:46">
+    <row r="109" spans="1:48">
       <c r="A109" s="2" t="s">
         <v>195</v>
       </c>
@@ -22906,7 +23635,7 @@
         <v>16.5</v>
       </c>
       <c r="P109" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>49.5</v>
       </c>
       <c r="Q109" s="2">
@@ -22934,7 +23663,7 @@
         <v>28.3</v>
       </c>
       <c r="Y109" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>17.915624999999999</v>
       </c>
       <c r="Z109" s="17" t="s">
@@ -23000,8 +23729,14 @@
       <c r="AT109" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU109" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV109" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="110" spans="1:46">
+    <row r="110" spans="1:48">
       <c r="A110" s="2" t="s">
         <v>197</v>
       </c>
@@ -23046,7 +23781,7 @@
         <v>14.1</v>
       </c>
       <c r="P110" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>42.3</v>
       </c>
       <c r="Q110" s="2">
@@ -23074,7 +23809,7 @@
         <v>28.762</v>
       </c>
       <c r="Y110" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>14.648858999999996</v>
       </c>
       <c r="Z110" s="17" t="s">
@@ -23140,8 +23875,14 @@
       <c r="AT110" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU110" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV110" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="111" spans="1:46">
+    <row r="111" spans="1:48">
       <c r="A111" s="2" t="s">
         <v>198</v>
       </c>
@@ -23186,7 +23927,7 @@
         <v>15</v>
       </c>
       <c r="P111" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>45</v>
       </c>
       <c r="Q111" s="2">
@@ -23214,7 +23955,7 @@
         <v>28.428999999999998</v>
       </c>
       <c r="Y111" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>16.803149999999999</v>
       </c>
       <c r="Z111" s="17" t="s">
@@ -23280,8 +24021,14 @@
       <c r="AT111" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU111" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV111" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="112" spans="1:46">
+    <row r="112" spans="1:48">
       <c r="A112" s="2" t="s">
         <v>199</v>
       </c>
@@ -23326,7 +24073,7 @@
         <v>14</v>
       </c>
       <c r="P112" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>42</v>
       </c>
       <c r="Q112" s="2">
@@ -23354,7 +24101,7 @@
         <v>28.387</v>
       </c>
       <c r="Y112" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>14.593779999999997</v>
       </c>
       <c r="Z112" s="17" t="s">
@@ -23420,8 +24167,14 @@
       <c r="AT112" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU112" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV112" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="113" spans="1:46">
+    <row r="113" spans="1:48">
       <c r="A113" s="2" t="s">
         <v>200</v>
       </c>
@@ -23466,7 +24219,7 @@
         <v>14.7</v>
       </c>
       <c r="P113" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>44.099999999999994</v>
       </c>
       <c r="Q113" s="2">
@@ -23494,7 +24247,7 @@
         <v>29.334</v>
       </c>
       <c r="Y113" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>16.911059999999996</v>
       </c>
       <c r="Z113" s="17" t="s">
@@ -23560,8 +24313,14 @@
       <c r="AT113" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU113" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV113" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="114" spans="1:46">
+    <row r="114" spans="1:48">
       <c r="A114" s="2" t="s">
         <v>201</v>
       </c>
@@ -23606,7 +24365,7 @@
         <v>17</v>
       </c>
       <c r="P114" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>51</v>
       </c>
       <c r="Q114" s="2">
@@ -23634,7 +24393,7 @@
         <v>29.678000000000001</v>
       </c>
       <c r="Y114" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>19.154519999999998</v>
       </c>
       <c r="Z114" s="17" t="s">
@@ -23700,8 +24459,14 @@
       <c r="AT114" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU114" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV114" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="115" spans="1:46">
+    <row r="115" spans="1:48">
       <c r="A115" s="2" t="s">
         <v>202</v>
       </c>
@@ -23746,7 +24511,7 @@
         <v>17.5</v>
       </c>
       <c r="P115" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>52.5</v>
       </c>
       <c r="Q115" s="2">
@@ -23774,7 +24539,7 @@
         <v>29.645</v>
       </c>
       <c r="Y115" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>19.758949999999995</v>
       </c>
       <c r="Z115" s="17" t="s">
@@ -23840,8 +24605,14 @@
       <c r="AT115" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU115" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV115" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="116" spans="1:46">
+    <row r="116" spans="1:48">
       <c r="A116" s="2" t="s">
         <v>203</v>
       </c>
@@ -23886,7 +24657,7 @@
         <v>15</v>
       </c>
       <c r="P116" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>45</v>
       </c>
       <c r="Q116" s="2">
@@ -23914,7 +24685,7 @@
         <v>28.920999999999999</v>
       </c>
       <c r="Y116" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>16.2789</v>
       </c>
       <c r="Z116" s="17" t="s">
@@ -23980,8 +24751,14 @@
       <c r="AT116" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU116" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV116" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="117" spans="1:46">
+    <row r="117" spans="1:48">
       <c r="A117" s="2" t="s">
         <v>204</v>
       </c>
@@ -24026,7 +24803,7 @@
         <v>15.7</v>
       </c>
       <c r="P117" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>47.099999999999994</v>
       </c>
       <c r="Q117" s="2">
@@ -24054,7 +24831,7 @@
         <v>28.919</v>
       </c>
       <c r="Y117" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>17.081647999999994</v>
       </c>
       <c r="Z117" s="17" t="s">
@@ -24120,8 +24897,14 @@
       <c r="AT117" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU117" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV117" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="118" spans="1:46">
+    <row r="118" spans="1:48">
       <c r="A118" s="2" t="s">
         <v>205</v>
       </c>
@@ -24166,7 +24949,7 @@
         <v>15.5</v>
       </c>
       <c r="P118" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>46.5</v>
       </c>
       <c r="Q118" s="2">
@@ -24194,7 +24977,7 @@
         <v>29.498999999999999</v>
       </c>
       <c r="Y118" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>17.186094999999995</v>
       </c>
       <c r="Z118" s="17" t="s">
@@ -24260,8 +25043,14 @@
       <c r="AT118" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU118" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV118" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="119" spans="1:46">
+    <row r="119" spans="1:48">
       <c r="A119" s="2" t="s">
         <v>206</v>
       </c>
@@ -24306,7 +25095,7 @@
         <v>15</v>
       </c>
       <c r="P119" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>45</v>
       </c>
       <c r="Q119" s="2">
@@ -24334,7 +25123,7 @@
         <v>28.47</v>
       </c>
       <c r="Y119" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>16.746599999999994</v>
       </c>
       <c r="Z119" s="17" t="s">
@@ -24400,8 +25189,14 @@
       <c r="AT119" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU119" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV119" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="120" spans="1:46">
+    <row r="120" spans="1:48">
       <c r="A120" s="2" t="s">
         <v>207</v>
       </c>
@@ -24446,7 +25241,7 @@
         <v>14.1</v>
       </c>
       <c r="P120" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>42.3</v>
       </c>
       <c r="Q120" s="2">
@@ -24474,7 +25269,7 @@
         <v>29.204000000000001</v>
       </c>
       <c r="Y120" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>15.960392999999998</v>
       </c>
       <c r="Z120" s="17" t="s">
@@ -24540,8 +25335,14 @@
       <c r="AT120" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU120" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV120" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="121" spans="1:46">
+    <row r="121" spans="1:48">
       <c r="A121" s="2" t="s">
         <v>208</v>
       </c>
@@ -24586,7 +25387,7 @@
         <v>15.1</v>
       </c>
       <c r="P121" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>45.3</v>
       </c>
       <c r="Q121" s="2">
@@ -24614,7 +25415,7 @@
         <v>30.183</v>
       </c>
       <c r="Y121" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>14.803310999999997</v>
       </c>
       <c r="Z121" s="17" t="s">
@@ -24680,8 +25481,14 @@
       <c r="AT121" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU121" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV121" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="122" spans="1:46">
+    <row r="122" spans="1:48">
       <c r="A122" s="2" t="s">
         <v>209</v>
       </c>
@@ -24726,7 +25533,7 @@
         <v>13.2</v>
       </c>
       <c r="P122" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>39.599999999999994</v>
       </c>
       <c r="Q122" s="2">
@@ -24754,7 +25561,7 @@
         <v>30.106999999999999</v>
       </c>
       <c r="Y122" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>15.745452</v>
       </c>
       <c r="Z122" s="17" t="s">
@@ -24820,8 +25627,14 @@
       <c r="AT122" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU122" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV122" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="123" spans="1:46">
+    <row r="123" spans="1:48">
       <c r="A123" s="2" t="s">
         <v>210</v>
       </c>
@@ -24866,7 +25679,7 @@
         <v>12.6</v>
       </c>
       <c r="P123" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>37.799999999999997</v>
       </c>
       <c r="Q123" s="2">
@@ -24894,7 +25707,7 @@
         <v>31.777000000000001</v>
       </c>
       <c r="Y123" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>13.72035</v>
       </c>
       <c r="Z123" s="17" t="s">
@@ -24960,8 +25773,14 @@
       <c r="AT123" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU123" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV123" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="124" spans="1:46">
+    <row r="124" spans="1:48">
       <c r="A124" s="2" t="s">
         <v>211</v>
       </c>
@@ -25006,7 +25825,7 @@
         <v>14.3</v>
       </c>
       <c r="P124" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>42.900000000000006</v>
       </c>
       <c r="Q124" s="2">
@@ -25034,7 +25853,7 @@
         <v>28.29</v>
       </c>
       <c r="Y124" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>16.224492999999999</v>
       </c>
       <c r="Z124" s="17" t="s">
@@ -25100,8 +25919,14 @@
       <c r="AT124" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU124" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV124" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="125" spans="1:46">
+    <row r="125" spans="1:48">
       <c r="A125" s="2" t="s">
         <v>212</v>
       </c>
@@ -25146,7 +25971,7 @@
         <v>13.9</v>
       </c>
       <c r="P125" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>41.7</v>
       </c>
       <c r="Q125" s="2">
@@ -25174,7 +25999,7 @@
         <v>28.76</v>
       </c>
       <c r="Y125" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>15.954577999999998</v>
       </c>
       <c r="Z125" s="17" t="s">
@@ -25240,8 +26065,14 @@
       <c r="AT125" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU125" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV125" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="126" spans="1:46">
+    <row r="126" spans="1:48">
       <c r="A126" s="2" t="s">
         <v>213</v>
       </c>
@@ -25286,7 +26117,7 @@
         <v>14.7</v>
       </c>
       <c r="P126" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>44.099999999999994</v>
       </c>
       <c r="Q126" s="2">
@@ -25314,7 +26145,7 @@
         <v>28.361000000000001</v>
       </c>
       <c r="Y126" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>14.326934999999997</v>
       </c>
       <c r="Z126" s="17" t="s">
@@ -25380,8 +26211,14 @@
       <c r="AT126" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU126" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV126" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="127" spans="1:46">
+    <row r="127" spans="1:48">
       <c r="A127" s="2" t="s">
         <v>214</v>
       </c>
@@ -25426,7 +26263,7 @@
         <v>17.7</v>
       </c>
       <c r="P127" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>53.099999999999994</v>
       </c>
       <c r="Q127" s="2">
@@ -25454,7 +26291,7 @@
         <v>29.678000000000001</v>
       </c>
       <c r="Y127" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>19.288133999999996</v>
       </c>
       <c r="Z127" s="17" t="s">
@@ -25520,8 +26357,14 @@
       <c r="AT127" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU127" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV127" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="128" spans="1:46">
+    <row r="128" spans="1:48">
       <c r="A128" s="2" t="s">
         <v>216</v>
       </c>
@@ -25566,7 +26409,7 @@
         <v>15.4</v>
       </c>
       <c r="P128" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>46.2</v>
       </c>
       <c r="Q128" s="2">
@@ -25594,7 +26437,7 @@
         <v>28.47</v>
       </c>
       <c r="Y128" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>16.959709999999998</v>
       </c>
       <c r="Z128" s="17" t="s">
@@ -25660,8 +26503,14 @@
       <c r="AT128" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU128" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV128" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="129" spans="1:46">
+    <row r="129" spans="1:48">
       <c r="A129" s="2" t="s">
         <v>217</v>
       </c>
@@ -25706,7 +26555,7 @@
         <v>12.6</v>
       </c>
       <c r="P129" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>37.799999999999997</v>
       </c>
       <c r="Q129" s="2">
@@ -25734,7 +26583,7 @@
         <v>30.183</v>
       </c>
       <c r="Y129" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>13.077845999999999</v>
       </c>
       <c r="Z129" s="17" t="s">
@@ -25800,8 +26649,14 @@
       <c r="AT129" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU129" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV129" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="130" spans="1:46">
+    <row r="130" spans="1:48">
       <c r="A130" s="2" t="s">
         <v>218</v>
       </c>
@@ -25846,7 +26701,7 @@
         <v>14</v>
       </c>
       <c r="P130" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>42</v>
       </c>
       <c r="Q130" s="2">
@@ -25874,7 +26729,7 @@
         <v>28.76</v>
       </c>
       <c r="Y130" s="14">
-        <f t="shared" ref="Y130:Y136" si="10">1.39*O130*J130/100+0.003*K130</f>
+        <f t="shared" ref="Y130:Y136" si="12">1.39*O130*J130/100+0.003*K130</f>
         <v>15.893139999999999</v>
       </c>
       <c r="Z130" s="17" t="s">
@@ -25940,8 +26795,14 @@
       <c r="AT130" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU130" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV130" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="131" spans="1:46">
+    <row r="131" spans="1:48">
       <c r="A131" s="2" t="s">
         <v>219</v>
       </c>
@@ -25986,7 +26847,7 @@
         <v>13.9</v>
       </c>
       <c r="P131" s="2">
-        <f t="shared" ref="P131:P136" si="11">O131*3</f>
+        <f t="shared" ref="P131:P136" si="13">O131*3</f>
         <v>41.7</v>
       </c>
       <c r="Q131" s="2">
@@ -26014,7 +26875,7 @@
         <v>28.178000000000001</v>
       </c>
       <c r="Y131" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>10.686907999999997</v>
       </c>
       <c r="Z131" s="17" t="s">
@@ -26080,8 +26941,14 @@
       <c r="AT131" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU131" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV131" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="132" spans="1:46">
+    <row r="132" spans="1:48">
       <c r="A132" s="2" t="s">
         <v>221</v>
       </c>
@@ -26126,7 +26993,7 @@
         <v>14.2</v>
       </c>
       <c r="P132" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>42.599999999999994</v>
       </c>
       <c r="Q132" s="2">
@@ -26154,7 +27021,7 @@
         <v>30.393999999999998</v>
       </c>
       <c r="Y132" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>16.433849999999996</v>
       </c>
       <c r="Z132" s="17" t="s">
@@ -26220,8 +27087,14 @@
       <c r="AT132" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU132" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV132" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="133" spans="1:46">
+    <row r="133" spans="1:48">
       <c r="A133" s="2" t="s">
         <v>222</v>
       </c>
@@ -26266,7 +27139,7 @@
         <v>13.5</v>
       </c>
       <c r="P133" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>40.5</v>
       </c>
       <c r="Q133" s="2">
@@ -26294,7 +27167,7 @@
         <v>28.428999999999998</v>
       </c>
       <c r="Y133" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>9.1444949999999974</v>
       </c>
       <c r="Z133" s="17" t="s">
@@ -26360,8 +27233,14 @@
       <c r="AT133" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU133" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV133" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="134" spans="1:46">
+    <row r="134" spans="1:48">
       <c r="A134" s="2" t="s">
         <v>223</v>
       </c>
@@ -26406,7 +27285,7 @@
         <v>14.9</v>
       </c>
       <c r="P134" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>44.7</v>
       </c>
       <c r="Q134" s="2">
@@ -26434,7 +27313,7 @@
         <v>30.393999999999998</v>
       </c>
       <c r="Y134" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>17.428973999999997</v>
       </c>
       <c r="Z134" s="17" t="s">
@@ -26500,8 +27379,14 @@
       <c r="AT134" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU134" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV134" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="135" spans="1:46">
+    <row r="135" spans="1:48">
       <c r="A135" s="2" t="s">
         <v>225</v>
       </c>
@@ -26546,7 +27431,7 @@
         <v>17.3</v>
       </c>
       <c r="P135" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>51.900000000000006</v>
       </c>
       <c r="Q135" s="2">
@@ -26574,7 +27459,7 @@
         <v>31.314</v>
       </c>
       <c r="Y135" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>18.416719999999998</v>
       </c>
       <c r="Z135" s="17" t="s">
@@ -26640,8 +27525,14 @@
       <c r="AT135" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU135" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV135" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="136" spans="1:46">
+    <row r="136" spans="1:48">
       <c r="A136" s="2" t="s">
         <v>226</v>
       </c>
@@ -26686,7 +27577,7 @@
         <v>15.2</v>
       </c>
       <c r="P136" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>45.599999999999994</v>
       </c>
       <c r="Q136" s="2">
@@ -26714,7 +27605,7 @@
         <v>30.393999999999998</v>
       </c>
       <c r="Y136" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>17.496087999999993</v>
       </c>
       <c r="Z136" s="17" t="s">
@@ -26780,50 +27671,56 @@
       <c r="AT136" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="AU136" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV136" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="137" spans="1:46">
+    <row r="137" spans="1:48">
       <c r="C137" s="9"/>
       <c r="D137" s="10"/>
       <c r="E137" s="10"/>
       <c r="F137" s="6"/>
     </row>
-    <row r="138" spans="1:46">
+    <row r="138" spans="1:48">
       <c r="C138" s="9"/>
       <c r="D138" s="10"/>
       <c r="E138" s="10"/>
       <c r="F138" s="6"/>
     </row>
-    <row r="139" spans="1:46">
+    <row r="139" spans="1:48">
       <c r="C139" s="9"/>
       <c r="D139" s="10"/>
       <c r="E139" s="10"/>
       <c r="F139" s="6"/>
     </row>
-    <row r="140" spans="1:46">
+    <row r="140" spans="1:48">
       <c r="C140" s="9"/>
       <c r="D140" s="10"/>
       <c r="E140" s="10"/>
       <c r="F140" s="6"/>
     </row>
-    <row r="141" spans="1:46">
+    <row r="141" spans="1:48">
       <c r="C141" s="9"/>
       <c r="D141" s="10"/>
       <c r="E141" s="10"/>
       <c r="F141" s="6"/>
     </row>
-    <row r="142" spans="1:46">
+    <row r="142" spans="1:48">
       <c r="C142" s="9"/>
       <c r="D142" s="10"/>
       <c r="E142" s="10"/>
       <c r="F142" s="6"/>
     </row>
-    <row r="143" spans="1:46">
+    <row r="143" spans="1:48">
       <c r="C143" s="9"/>
       <c r="D143" s="10"/>
       <c r="E143" s="10"/>
       <c r="F143" s="6"/>
     </row>
-    <row r="144" spans="1:46">
+    <row r="144" spans="1:48">
       <c r="C144" s="9"/>
       <c r="D144" s="10"/>
       <c r="E144" s="10"/>

--- a/062619_Tibetan_Blood_Gas_4200.xlsx
+++ b/062619_Tibetan_Blood_Gas_4200.xlsx
@@ -1179,11 +1179,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="160711728"/>
-        <c:axId val="160712288"/>
+        <c:axId val="160042688"/>
+        <c:axId val="279993504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="160711728"/>
+        <c:axId val="160042688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="10"/>
@@ -1296,12 +1296,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160712288"/>
+        <c:crossAx val="279993504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="160712288"/>
+        <c:axId val="279993504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1413,7 +1413,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160711728"/>
+        <c:crossAx val="160042688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1802,11 +1802,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="160715088"/>
-        <c:axId val="160715648"/>
+        <c:axId val="279996304"/>
+        <c:axId val="279996864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="160715088"/>
+        <c:axId val="279996304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="10"/>
@@ -1919,12 +1919,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160715648"/>
+        <c:crossAx val="279996864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="160715648"/>
+        <c:axId val="279996864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2036,7 +2036,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160715088"/>
+        <c:crossAx val="279996304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2419,11 +2419,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="208007056"/>
-        <c:axId val="208007616"/>
+        <c:axId val="279999664"/>
+        <c:axId val="280000224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="208007056"/>
+        <c:axId val="279999664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -2537,12 +2537,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208007616"/>
+        <c:crossAx val="280000224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="208007616"/>
+        <c:axId val="280000224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2654,7 +2654,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208007056"/>
+        <c:crossAx val="279999664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3121,11 +3121,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="208010416"/>
-        <c:axId val="208010976"/>
+        <c:axId val="277888592"/>
+        <c:axId val="277889152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="208010416"/>
+        <c:axId val="277888592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="10"/>
@@ -3238,12 +3238,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208010976"/>
+        <c:crossAx val="277889152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="208010976"/>
+        <c:axId val="277889152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3355,7 +3355,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208010416"/>
+        <c:crossAx val="277888592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3918,11 +3918,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="208013776"/>
-        <c:axId val="208134048"/>
+        <c:axId val="277891952"/>
+        <c:axId val="277892512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="208013776"/>
+        <c:axId val="277891952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="10"/>
@@ -4035,12 +4035,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208134048"/>
+        <c:crossAx val="277892512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="208134048"/>
+        <c:axId val="277892512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4160,7 +4160,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208013776"/>
+        <c:crossAx val="277891952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7435,9 +7435,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AJ20" sqref="AJ20"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AQ14" sqref="AQ14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
